--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DaKoning\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A183D6C-E091-4347-B01D-C516D9E5C462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79CCA09-EAC5-47C5-9ECD-13162892C7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="606" activeTab="1" xr2:uid="{33A036B6-6133-4D40-ABD8-ABB9BF197AB8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="606" activeTab="1" xr2:uid="{33A036B6-6133-4D40-ABD8-ABB9BF197AB8}"/>
   </bookViews>
   <sheets>
     <sheet name="repos" sheetId="1" r:id="rId1"/>
@@ -164,9 +164,6 @@
     <t>is_local</t>
   </si>
   <si>
-    <t>what_does_it_test</t>
-  </si>
-  <si>
     <t>is_nested</t>
   </si>
   <si>
@@ -3679,6 +3676,9 @@
   </si>
   <si>
     <t>Non-Hypothesis Generation</t>
+  </si>
+  <si>
+    <t>test_level</t>
   </si>
 </sst>
 </file>
@@ -7584,8 +7584,8 @@
     <tableColumn id="8" xr3:uid="{184F1262-DF58-44EB-A22F-EB34D31529B8}" name="is_local" totalsRowFunction="custom">
       <totalsRowFormula>COUNTIF(Table2[is_local],TRUE)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E11664C9-7056-4BAA-8F5C-2E5AD7BA1BED}" name="what_does_it_test" totalsRowFunction="custom">
-      <totalsRowFormula>COUNTA(Table2[what_does_it_test]) - COUNTIF(Table2[what_does_it_test], "Functionality")</totalsRowFormula>
+    <tableColumn id="9" xr3:uid="{E11664C9-7056-4BAA-8F5C-2E5AD7BA1BED}" name="test_level" totalsRowFunction="custom">
+      <totalsRowFormula>COUNTA(Table2[test_level]) - COUNTIF(Table2[test_level], "Functionality")</totalsRowFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{E6C9ED27-067B-4A4D-8D3C-8A7E2A658B07}" name="is_nested" totalsRowFunction="custom">
       <totalsRowFormula>COUNTIF(Table2[is_nested],TRUE)</totalsRowFormula>
@@ -8363,8 +8363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F98F25-731C-4BDA-B44F-8D142F2DF43D}">
   <dimension ref="A1:AP90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AP1" sqref="AP1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8442,118 +8442,118 @@
         <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K1" t="s">
         <v>32</v>
       </c>
       <c r="L1" t="s">
+        <v>458</v>
+      </c>
+      <c r="M1" t="s">
         <v>33</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>34</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>203</v>
+      </c>
+      <c r="P1" t="s">
         <v>35</v>
       </c>
-      <c r="O1" t="s">
-        <v>204</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
+        <v>277</v>
+      </c>
+      <c r="S1" t="s">
         <v>37</v>
       </c>
-      <c r="R1" t="s">
-        <v>278</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
+        <v>171</v>
+      </c>
+      <c r="U1" t="s">
         <v>38</v>
       </c>
-      <c r="T1" t="s">
-        <v>172</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
+        <v>269</v>
+      </c>
+      <c r="W1" t="s">
+        <v>275</v>
+      </c>
+      <c r="X1" t="s">
         <v>39</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AI1" t="s">
         <v>270</v>
       </c>
-      <c r="W1" t="s">
-        <v>276</v>
-      </c>
-      <c r="X1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>178</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>291</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG1" t="s">
+      <c r="AJ1" t="s">
         <v>45</v>
       </c>
-      <c r="AH1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>271</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>46</v>
-      </c>
       <c r="AK1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AL1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AM1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AN1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AO1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AP1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" t="str" cm="1">
         <f t="array" ref="B2">INDEX(_xlfn.TEXTSPLIT(A2,"/"),5)</f>
         <v>cpython</v>
       </c>
       <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
         <v>48</v>
-      </c>
-      <c r="D2" t="s">
-        <v>49</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -8577,25 +8577,25 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
         <v>50</v>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
         <v>51</v>
       </c>
-      <c r="O2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P2" t="s">
-        <v>52</v>
-      </c>
       <c r="Q2" t="b">
         <v>0</v>
       </c>
       <c r="R2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="S2" t="b">
         <v>1</v>
@@ -8640,7 +8640,7 @@
         <v>0</v>
       </c>
       <c r="AG2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH2" t="b">
         <v>0</v>
@@ -8655,7 +8655,7 @@
         <v>0</v>
       </c>
       <c r="AL2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM2">
         <v>100</v>
@@ -8664,7 +8664,7 @@
         <v>200</v>
       </c>
       <c r="AO2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP2" t="b">
         <v>0</v>
@@ -8672,17 +8672,17 @@
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" t="str" cm="1">
         <f t="array" ref="B3">INDEX(_xlfn.TEXTSPLIT(A3,"/"),5)</f>
         <v>cpython</v>
       </c>
       <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
         <v>54</v>
-      </c>
-      <c r="D3" t="s">
-        <v>55</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -8706,25 +8706,25 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
         <v>50</v>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
         <v>51</v>
       </c>
-      <c r="O3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" t="s">
-        <v>52</v>
-      </c>
       <c r="Q3" t="b">
         <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S3" t="b">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="AG3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH3" t="b">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="AL3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM3">
         <v>100</v>
@@ -8793,7 +8793,7 @@
         <v>200</v>
       </c>
       <c r="AO3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP3" t="b">
         <v>0</v>
@@ -8801,17 +8801,17 @@
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" t="str" cm="1">
         <f t="array" ref="B4">INDEX(_xlfn.TEXTSPLIT(A4,"/"),5)</f>
         <v>cpython</v>
       </c>
       <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
         <v>58</v>
-      </c>
-      <c r="D4" t="s">
-        <v>59</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -8835,25 +8835,25 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
         <v>50</v>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
         <v>51</v>
       </c>
-      <c r="O4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P4" t="s">
-        <v>52</v>
-      </c>
       <c r="Q4" t="b">
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="S4" t="b">
         <v>0</v>
@@ -8898,7 +8898,7 @@
         <v>0</v>
       </c>
       <c r="AG4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH4" t="b">
         <v>0</v>
@@ -8913,7 +8913,7 @@
         <v>0</v>
       </c>
       <c r="AL4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM4">
         <v>100</v>
@@ -8922,7 +8922,7 @@
         <v>200</v>
       </c>
       <c r="AO4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP4" t="b">
         <v>0</v>
@@ -8930,17 +8930,17 @@
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" t="str" cm="1">
         <f t="array" ref="B5">INDEX(_xlfn.TEXTSPLIT(A5,"/"),5)</f>
         <v>cpython</v>
       </c>
       <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
         <v>61</v>
-      </c>
-      <c r="D5" t="s">
-        <v>62</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -8964,25 +8964,25 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
         <v>50</v>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="O5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
         <v>51</v>
       </c>
-      <c r="O5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" t="s">
-        <v>52</v>
-      </c>
       <c r="Q5" t="b">
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="S5" t="b">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="AG5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH5" t="b">
         <v>0</v>
@@ -9042,7 +9042,7 @@
         <v>0</v>
       </c>
       <c r="AL5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM5">
         <v>100</v>
@@ -9051,7 +9051,7 @@
         <v>200</v>
       </c>
       <c r="AO5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP5" t="b">
         <v>0</v>
@@ -9059,17 +9059,17 @@
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" t="str" cm="1">
         <f t="array" ref="B6">INDEX(_xlfn.TEXTSPLIT(A6,"/"),5)</f>
         <v>cpython</v>
       </c>
       <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
         <v>64</v>
-      </c>
-      <c r="D6" t="s">
-        <v>65</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -9093,71 +9093,71 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
         <v>50</v>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" t="s">
-        <v>51</v>
-      </c>
       <c r="O6" t="b">
         <v>0</v>
       </c>
       <c r="P6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q6" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" t="s">
         <v>66</v>
       </c>
-      <c r="Q6" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6" t="s">
+      <c r="S6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T6" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" t="b">
+        <v>0</v>
+      </c>
+      <c r="W6" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="s">
         <v>67</v>
       </c>
-      <c r="S6" t="b">
-        <v>1</v>
-      </c>
-      <c r="T6" t="b">
-        <v>0</v>
-      </c>
-      <c r="U6" t="b">
-        <v>0</v>
-      </c>
-      <c r="V6" t="b">
-        <v>0</v>
-      </c>
-      <c r="W6" t="b">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>68</v>
-      </c>
       <c r="AH6" t="b">
         <v>1</v>
       </c>
@@ -9171,7 +9171,7 @@
         <v>0</v>
       </c>
       <c r="AL6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM6">
         <v>100</v>
@@ -9180,7 +9180,7 @@
         <v>200</v>
       </c>
       <c r="AO6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP6" t="b">
         <v>1</v>
@@ -9188,17 +9188,17 @@
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" t="str" cm="1">
         <f t="array" ref="B7">INDEX(_xlfn.TEXTSPLIT(A7,"/"),5)</f>
         <v>cpython</v>
       </c>
       <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" t="s">
         <v>70</v>
-      </c>
-      <c r="D7" t="s">
-        <v>71</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -9222,25 +9222,25 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
         <v>50</v>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" t="s">
-        <v>51</v>
-      </c>
       <c r="O7" t="b">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q7" t="b">
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S7" t="b">
         <v>1</v>
@@ -9285,7 +9285,7 @@
         <v>1</v>
       </c>
       <c r="AG7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AH7" t="b">
         <v>1</v>
@@ -9300,7 +9300,7 @@
         <v>0</v>
       </c>
       <c r="AL7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM7">
         <v>100</v>
@@ -9309,7 +9309,7 @@
         <v>200</v>
       </c>
       <c r="AO7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP7" t="b">
         <v>0</v>
@@ -9317,17 +9317,17 @@
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" t="str" cm="1">
         <f t="array" ref="B8">INDEX(_xlfn.TEXTSPLIT(A8,"/"),5)</f>
         <v>cpython</v>
       </c>
       <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
         <v>74</v>
-      </c>
-      <c r="D8" t="s">
-        <v>75</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -9351,25 +9351,25 @@
         <v>1</v>
       </c>
       <c r="L8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
         <v>50</v>
       </c>
-      <c r="M8" t="b">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
-        <v>51</v>
-      </c>
       <c r="O8" t="b">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Q8" t="b">
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S8" t="b">
         <v>1</v>
@@ -9414,7 +9414,7 @@
         <v>0</v>
       </c>
       <c r="AG8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH8" t="b">
         <v>0</v>
@@ -9429,7 +9429,7 @@
         <v>0</v>
       </c>
       <c r="AL8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM8">
         <v>100</v>
@@ -9438,7 +9438,7 @@
         <v>200</v>
       </c>
       <c r="AO8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP8" t="b">
         <v>0</v>
@@ -9446,17 +9446,17 @@
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" t="str" cm="1">
         <f t="array" ref="B9">INDEX(_xlfn.TEXTSPLIT(A9,"/"),5)</f>
         <v>cpython</v>
       </c>
       <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" t="s">
         <v>78</v>
-      </c>
-      <c r="D9" t="s">
-        <v>79</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -9480,25 +9480,25 @@
         <v>1</v>
       </c>
       <c r="L9" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
         <v>50</v>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
-      </c>
-      <c r="N9" t="s">
-        <v>51</v>
-      </c>
       <c r="O9" t="b">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q9" t="b">
         <v>0</v>
       </c>
       <c r="R9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="S9" t="b">
         <v>0</v>
@@ -9543,7 +9543,7 @@
         <v>1</v>
       </c>
       <c r="AG9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH9" t="b">
         <v>1</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM9">
         <v>100</v>
@@ -9567,7 +9567,7 @@
         <v>200</v>
       </c>
       <c r="AO9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP9" t="b">
         <v>1</v>
@@ -9575,17 +9575,17 @@
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" t="str" cm="1">
         <f t="array" ref="B10">INDEX(_xlfn.TEXTSPLIT(A10,"/"),5)</f>
         <v>cpython</v>
       </c>
       <c r="C10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" t="s">
         <v>83</v>
-      </c>
-      <c r="D10" t="s">
-        <v>84</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -9609,25 +9609,25 @@
         <v>1</v>
       </c>
       <c r="L10" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
         <v>50</v>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
-      </c>
-      <c r="N10" t="s">
-        <v>51</v>
-      </c>
       <c r="O10" t="b">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q10" t="b">
         <v>0</v>
       </c>
       <c r="R10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="S10" t="b">
         <v>0</v>
@@ -9672,7 +9672,7 @@
         <v>0</v>
       </c>
       <c r="AG10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH10" t="b">
         <v>1</v>
@@ -9687,7 +9687,7 @@
         <v>0</v>
       </c>
       <c r="AL10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM10">
         <v>100</v>
@@ -9696,7 +9696,7 @@
         <v>200</v>
       </c>
       <c r="AO10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP10" t="b">
         <v>1</v>
@@ -9704,17 +9704,17 @@
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" t="str" cm="1">
         <f t="array" ref="B11">INDEX(_xlfn.TEXTSPLIT(A11,"/"),5)</f>
         <v>cpython</v>
       </c>
       <c r="C11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" t="s">
         <v>86</v>
-      </c>
-      <c r="D11" t="s">
-        <v>87</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -9738,25 +9738,25 @@
         <v>1</v>
       </c>
       <c r="L11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
         <v>50</v>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
-      </c>
-      <c r="N11" t="s">
-        <v>51</v>
-      </c>
       <c r="O11" t="b">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q11" t="b">
         <v>0</v>
       </c>
       <c r="R11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="S11" t="b">
         <v>1</v>
@@ -9801,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="AG11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH11" t="b">
         <v>1</v>
@@ -9816,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="AL11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM11">
         <v>100</v>
@@ -9825,7 +9825,7 @@
         <v>200</v>
       </c>
       <c r="AO11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP11" t="b">
         <v>1</v>
@@ -9833,17 +9833,17 @@
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B12" t="str" cm="1">
         <f t="array" ref="B12">INDEX(_xlfn.TEXTSPLIT(A12,"/"),5)</f>
         <v>cpython</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -9867,25 +9867,25 @@
         <v>1</v>
       </c>
       <c r="L12" t="s">
+        <v>49</v>
+      </c>
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
         <v>50</v>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
-      </c>
-      <c r="N12" t="s">
-        <v>51</v>
-      </c>
       <c r="O12" t="b">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q12" t="b">
         <v>0</v>
       </c>
       <c r="R12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="S12" t="b">
         <v>0</v>
@@ -9930,7 +9930,7 @@
         <v>0</v>
       </c>
       <c r="AG12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH12" t="b">
         <v>1</v>
@@ -9945,7 +9945,7 @@
         <v>0</v>
       </c>
       <c r="AL12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM12">
         <v>100</v>
@@ -9954,7 +9954,7 @@
         <v>200</v>
       </c>
       <c r="AO12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP12" t="b">
         <v>1</v>
@@ -9962,17 +9962,17 @@
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" t="str" cm="1">
         <f t="array" ref="B13">INDEX(_xlfn.TEXTSPLIT(A13,"/"),5)</f>
         <v>cpython</v>
       </c>
       <c r="C13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" t="s">
         <v>91</v>
-      </c>
-      <c r="D13" t="s">
-        <v>92</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -9996,25 +9996,25 @@
         <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" t="b">
         <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O13" t="b">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q13" t="b">
         <v>0</v>
       </c>
       <c r="R13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="S13" t="b">
         <v>0</v>
@@ -10059,7 +10059,7 @@
         <v>0</v>
       </c>
       <c r="AG13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH13" t="b">
         <v>1</v>
@@ -10074,7 +10074,7 @@
         <v>0</v>
       </c>
       <c r="AL13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM13">
         <v>100</v>
@@ -10083,7 +10083,7 @@
         <v>200</v>
       </c>
       <c r="AO13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP13" t="b">
         <v>1</v>
@@ -10091,17 +10091,17 @@
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B14" t="str" cm="1">
         <f t="array" ref="B14">INDEX(_xlfn.TEXTSPLIT(A14,"/"),5)</f>
         <v>cpython</v>
       </c>
       <c r="C14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" t="s">
         <v>95</v>
-      </c>
-      <c r="D14" t="s">
-        <v>96</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -10125,25 +10125,25 @@
         <v>1</v>
       </c>
       <c r="L14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M14" t="b">
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O14" t="b">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q14" t="b">
         <v>0</v>
       </c>
       <c r="R14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="S14" t="b">
         <v>0</v>
@@ -10188,7 +10188,7 @@
         <v>0</v>
       </c>
       <c r="AG14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH14" t="b">
         <v>1</v>
@@ -10203,7 +10203,7 @@
         <v>0</v>
       </c>
       <c r="AL14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM14">
         <v>100</v>
@@ -10212,7 +10212,7 @@
         <v>200</v>
       </c>
       <c r="AO14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP14" t="b">
         <v>1</v>
@@ -10220,17 +10220,17 @@
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B15" t="str" cm="1">
         <f t="array" ref="B15">INDEX(_xlfn.TEXTSPLIT(A15,"/"),5)</f>
         <v>cpython</v>
       </c>
       <c r="C15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" t="s">
         <v>99</v>
-      </c>
-      <c r="D15" t="s">
-        <v>100</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -10254,25 +10254,25 @@
         <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M15" t="b">
         <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O15" t="b">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q15" t="b">
         <v>0</v>
       </c>
       <c r="R15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="S15" t="b">
         <v>0</v>
@@ -10317,7 +10317,7 @@
         <v>0</v>
       </c>
       <c r="AG15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH15" t="b">
         <v>1</v>
@@ -10332,7 +10332,7 @@
         <v>0</v>
       </c>
       <c r="AL15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM15">
         <v>100</v>
@@ -10341,7 +10341,7 @@
         <v>200</v>
       </c>
       <c r="AO15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP15" t="b">
         <v>1</v>
@@ -10349,18 +10349,18 @@
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B16" t="str" cm="1">
         <f t="array" ref="B16">INDEX(_xlfn.TEXTSPLIT(A16,"/"),5)</f>
         <v>cpython</v>
       </c>
       <c r="C16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" t="s">
         <v>102</v>
       </c>
-      <c r="D16" t="s">
-        <v>103</v>
-      </c>
       <c r="E16">
         <v>1</v>
       </c>
@@ -10383,25 +10383,25 @@
         <v>1</v>
       </c>
       <c r="L16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M16" t="b">
         <v>0</v>
       </c>
       <c r="N16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O16" t="b">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q16" t="b">
         <v>0</v>
       </c>
       <c r="R16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="S16" t="b">
         <v>0</v>
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="AG16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH16" t="b">
         <v>1</v>
@@ -10461,7 +10461,7 @@
         <v>0</v>
       </c>
       <c r="AL16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM16">
         <v>100</v>
@@ -10470,7 +10470,7 @@
         <v>200</v>
       </c>
       <c r="AO16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP16" t="b">
         <v>1</v>
@@ -10478,17 +10478,17 @@
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17" t="str" cm="1">
         <f t="array" ref="B17">INDEX(_xlfn.TEXTSPLIT(A17,"/"),5)</f>
         <v>cpython</v>
       </c>
       <c r="C17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" t="s">
         <v>105</v>
-      </c>
-      <c r="D17" t="s">
-        <v>106</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -10512,25 +10512,25 @@
         <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M17" t="b">
         <v>0</v>
       </c>
       <c r="N17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O17" t="b">
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q17" t="b">
         <v>0</v>
       </c>
       <c r="R17" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="S17" t="b">
         <v>0</v>
@@ -10575,7 +10575,7 @@
         <v>0</v>
       </c>
       <c r="AG17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH17" t="b">
         <v>1</v>
@@ -10590,7 +10590,7 @@
         <v>0</v>
       </c>
       <c r="AL17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM17">
         <v>100</v>
@@ -10599,7 +10599,7 @@
         <v>200</v>
       </c>
       <c r="AO17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP17" t="b">
         <v>1</v>
@@ -10607,17 +10607,17 @@
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B18" t="str" cm="1">
         <f t="array" ref="B18">INDEX(_xlfn.TEXTSPLIT(A18,"/"),5)</f>
         <v>cpython</v>
       </c>
       <c r="C18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" t="s">
         <v>108</v>
-      </c>
-      <c r="D18" t="s">
-        <v>109</v>
       </c>
       <c r="E18">
         <v>5</v>
@@ -10641,25 +10641,25 @@
         <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" t="b">
         <v>0</v>
       </c>
       <c r="N18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O18" t="b">
         <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q18" t="b">
         <v>0</v>
       </c>
       <c r="R18" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="S18" t="b">
         <v>0</v>
@@ -10704,7 +10704,7 @@
         <v>0</v>
       </c>
       <c r="AG18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH18" t="b">
         <v>1</v>
@@ -10719,7 +10719,7 @@
         <v>0</v>
       </c>
       <c r="AL18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM18">
         <v>100</v>
@@ -10728,7 +10728,7 @@
         <v>200</v>
       </c>
       <c r="AO18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP18" t="b">
         <v>1</v>
@@ -10736,17 +10736,17 @@
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B19" t="str" cm="1">
         <f t="array" ref="B19">INDEX(_xlfn.TEXTSPLIT(A19,"/"),5)</f>
         <v>cpython</v>
       </c>
       <c r="C19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" t="s">
         <v>112</v>
-      </c>
-      <c r="D19" t="s">
-        <v>113</v>
       </c>
       <c r="E19">
         <v>8</v>
@@ -10770,25 +10770,25 @@
         <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M19" t="b">
         <v>0</v>
       </c>
       <c r="N19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O19" t="b">
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q19" t="b">
         <v>0</v>
       </c>
       <c r="R19" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="S19" t="b">
         <v>0</v>
@@ -10833,7 +10833,7 @@
         <v>0</v>
       </c>
       <c r="AG19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH19" t="b">
         <v>1</v>
@@ -10848,7 +10848,7 @@
         <v>0</v>
       </c>
       <c r="AL19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM19">
         <v>100</v>
@@ -10857,7 +10857,7 @@
         <v>200</v>
       </c>
       <c r="AO19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP19" t="b">
         <v>1</v>
@@ -10865,17 +10865,17 @@
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B20" t="str" cm="1">
         <f t="array" ref="B20">INDEX(_xlfn.TEXTSPLIT(A20,"/"),5)</f>
         <v>cpython</v>
       </c>
       <c r="C20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" t="s">
         <v>115</v>
-      </c>
-      <c r="D20" t="s">
-        <v>116</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -10899,25 +10899,25 @@
         <v>1</v>
       </c>
       <c r="L20" t="s">
+        <v>49</v>
+      </c>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
         <v>50</v>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
-      </c>
-      <c r="N20" t="s">
-        <v>51</v>
-      </c>
       <c r="O20" t="b">
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q20" t="b">
         <v>0</v>
       </c>
       <c r="R20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="S20" t="b">
         <v>0</v>
@@ -10962,7 +10962,7 @@
         <v>0</v>
       </c>
       <c r="AG20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH20" t="b">
         <v>1</v>
@@ -10977,7 +10977,7 @@
         <v>0</v>
       </c>
       <c r="AL20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM20">
         <v>100</v>
@@ -10986,7 +10986,7 @@
         <v>200</v>
       </c>
       <c r="AO20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP20" t="b">
         <v>1</v>
@@ -10994,59 +10994,59 @@
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B21" t="str" cm="1">
         <f t="array" ref="B21">INDEX(_xlfn.TEXTSPLIT(A21,"/"),5)</f>
         <v>cpython</v>
       </c>
       <c r="C21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" t="s">
         <v>118</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>49</v>
+      </c>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
+        <v>50</v>
+      </c>
+      <c r="O21" t="b">
+        <v>0</v>
+      </c>
+      <c r="P21" t="s">
         <v>119</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" t="s">
-        <v>50</v>
-      </c>
-      <c r="M21" t="b">
-        <v>0</v>
-      </c>
-      <c r="N21" t="s">
-        <v>51</v>
-      </c>
-      <c r="O21" t="b">
-        <v>0</v>
-      </c>
-      <c r="P21" t="s">
-        <v>120</v>
-      </c>
       <c r="Q21" t="b">
         <v>0</v>
       </c>
       <c r="R21" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="S21" t="b">
         <v>0</v>
@@ -11091,7 +11091,7 @@
         <v>0</v>
       </c>
       <c r="AG21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH21" t="b">
         <v>1</v>
@@ -11106,7 +11106,7 @@
         <v>0</v>
       </c>
       <c r="AL21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM21">
         <v>100</v>
@@ -11115,7 +11115,7 @@
         <v>200</v>
       </c>
       <c r="AO21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP21" t="b">
         <v>1</v>
@@ -11123,17 +11123,17 @@
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B22" t="str" cm="1">
         <f t="array" ref="B22">INDEX(_xlfn.TEXTSPLIT(A22,"/"),5)</f>
         <v>cpython</v>
       </c>
       <c r="C22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" t="s">
         <v>122</v>
-      </c>
-      <c r="D22" t="s">
-        <v>123</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -11157,25 +11157,25 @@
         <v>1</v>
       </c>
       <c r="L22" t="s">
+        <v>49</v>
+      </c>
+      <c r="M22" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" t="s">
         <v>50</v>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
-      </c>
-      <c r="N22" t="s">
-        <v>51</v>
-      </c>
       <c r="O22" t="b">
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q22" t="b">
         <v>0</v>
       </c>
       <c r="R22" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="S22" t="b">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>0</v>
       </c>
       <c r="AG22" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH22" t="b">
         <v>0</v>
@@ -11235,7 +11235,7 @@
         <v>0</v>
       </c>
       <c r="AL22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM22">
         <v>100</v>
@@ -11244,7 +11244,7 @@
         <v>200</v>
       </c>
       <c r="AO22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP22" t="b">
         <v>1</v>
@@ -11252,17 +11252,17 @@
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B23" t="str" cm="1">
         <f t="array" ref="B23">INDEX(_xlfn.TEXTSPLIT(A23,"/"),5)</f>
         <v>pandas</v>
       </c>
       <c r="C23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>125</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>126</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -11286,25 +11286,25 @@
         <v>1</v>
       </c>
       <c r="L23" t="s">
+        <v>49</v>
+      </c>
+      <c r="M23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
         <v>50</v>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
-      </c>
-      <c r="N23" t="s">
-        <v>51</v>
-      </c>
       <c r="O23" t="b">
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q23" t="b">
         <v>0</v>
       </c>
       <c r="R23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="S23" t="b">
         <v>1</v>
@@ -11349,7 +11349,7 @@
         <v>0</v>
       </c>
       <c r="AG23" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH23" t="b">
         <v>0</v>
@@ -11364,7 +11364,7 @@
         <v>0</v>
       </c>
       <c r="AL23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM23">
         <v>100</v>
@@ -11373,7 +11373,7 @@
         <v>200</v>
       </c>
       <c r="AO23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP23" t="b">
         <v>0</v>
@@ -11381,105 +11381,105 @@
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B24" t="str" cm="1">
         <f t="array" ref="B24">INDEX(_xlfn.TEXTSPLIT(A24,"/"),5)</f>
         <v>pandas</v>
       </c>
       <c r="C24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D24" t="s">
+        <v>153</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>49</v>
+      </c>
+      <c r="M24" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" t="s">
+        <v>50</v>
+      </c>
+      <c r="O24" t="b">
+        <v>0</v>
+      </c>
+      <c r="P24" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q24" t="b">
+        <v>0</v>
+      </c>
+      <c r="R24" t="s">
+        <v>366</v>
+      </c>
+      <c r="S24" t="b">
+        <v>1</v>
+      </c>
+      <c r="T24" t="b">
+        <v>1</v>
+      </c>
+      <c r="U24" t="b">
+        <v>0</v>
+      </c>
+      <c r="V24" t="b">
+        <v>0</v>
+      </c>
+      <c r="W24" t="b">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="s">
         <v>154</v>
       </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24" t="b">
-        <v>1</v>
-      </c>
-      <c r="L24" t="s">
-        <v>50</v>
-      </c>
-      <c r="M24" t="b">
-        <v>0</v>
-      </c>
-      <c r="N24" t="s">
-        <v>51</v>
-      </c>
-      <c r="O24" t="b">
-        <v>0</v>
-      </c>
-      <c r="P24" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q24" t="b">
-        <v>0</v>
-      </c>
-      <c r="R24" t="s">
-        <v>367</v>
-      </c>
-      <c r="S24" t="b">
-        <v>1</v>
-      </c>
-      <c r="T24" t="b">
-        <v>1</v>
-      </c>
-      <c r="U24" t="b">
-        <v>0</v>
-      </c>
-      <c r="V24" t="b">
-        <v>0</v>
-      </c>
-      <c r="W24" t="b">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>155</v>
-      </c>
       <c r="AH24" t="b">
         <v>0</v>
       </c>
@@ -11493,7 +11493,7 @@
         <v>0</v>
       </c>
       <c r="AL24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM24">
         <v>100</v>
@@ -11502,7 +11502,7 @@
         <v>200</v>
       </c>
       <c r="AO24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP24" t="b">
         <v>0</v>
@@ -11510,17 +11510,17 @@
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B25" t="str" cm="1">
         <f t="array" ref="B25">INDEX(_xlfn.TEXTSPLIT(A25,"/"),5)</f>
         <v>pandas</v>
       </c>
       <c r="C25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E25">
         <v>4</v>
@@ -11544,25 +11544,25 @@
         <v>1</v>
       </c>
       <c r="L25" t="s">
+        <v>49</v>
+      </c>
+      <c r="M25" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
         <v>50</v>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
-      </c>
-      <c r="N25" t="s">
-        <v>51</v>
-      </c>
       <c r="O25" t="b">
         <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="Q25" t="b">
         <v>1</v>
       </c>
       <c r="R25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S25" t="b">
         <v>1</v>
@@ -11607,7 +11607,7 @@
         <v>0</v>
       </c>
       <c r="AG25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH25" t="b">
         <v>0</v>
@@ -11622,7 +11622,7 @@
         <v>0</v>
       </c>
       <c r="AL25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM25">
         <v>100</v>
@@ -11631,7 +11631,7 @@
         <v>200</v>
       </c>
       <c r="AO25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP25" t="b">
         <v>0</v>
@@ -11639,17 +11639,17 @@
     </row>
     <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B26" t="str" cm="1">
         <f t="array" ref="B26">INDEX(_xlfn.TEXTSPLIT(A26,"/"),5)</f>
         <v>pandas</v>
       </c>
       <c r="C26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -11673,25 +11673,25 @@
         <v>1</v>
       </c>
       <c r="L26" t="s">
+        <v>49</v>
+      </c>
+      <c r="M26" t="b">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
         <v>50</v>
       </c>
-      <c r="M26" t="b">
-        <v>1</v>
-      </c>
-      <c r="N26" t="s">
-        <v>51</v>
-      </c>
       <c r="O26" t="b">
         <v>0</v>
       </c>
       <c r="P26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q26" t="b">
         <v>1</v>
       </c>
       <c r="R26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S26" t="b">
         <v>1</v>
@@ -11736,7 +11736,7 @@
         <v>0</v>
       </c>
       <c r="AG26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH26" t="b">
         <v>0</v>
@@ -11751,7 +11751,7 @@
         <v>1</v>
       </c>
       <c r="AL26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM26">
         <v>100</v>
@@ -11760,7 +11760,7 @@
         <v>200</v>
       </c>
       <c r="AO26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP26" t="b">
         <v>1</v>
@@ -11768,60 +11768,60 @@
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B27" t="str" cm="1">
         <f t="array" ref="B27">INDEX(_xlfn.TEXTSPLIT(A27,"/"),5)</f>
         <v>pandas</v>
       </c>
       <c r="C27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D27" t="s">
+        <v>160</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" t="s">
+        <v>49</v>
+      </c>
+      <c r="M27" t="b">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>50</v>
+      </c>
+      <c r="O27" t="b">
+        <v>0</v>
+      </c>
+      <c r="P27" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q27" t="b">
+        <v>0</v>
+      </c>
+      <c r="R27" t="s">
         <v>161</v>
       </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L27" t="s">
-        <v>50</v>
-      </c>
-      <c r="M27" t="b">
-        <v>1</v>
-      </c>
-      <c r="N27" t="s">
-        <v>51</v>
-      </c>
-      <c r="O27" t="b">
-        <v>0</v>
-      </c>
-      <c r="P27" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q27" t="b">
-        <v>0</v>
-      </c>
-      <c r="R27" t="s">
-        <v>162</v>
-      </c>
       <c r="S27" t="b">
         <v>1</v>
       </c>
@@ -11865,7 +11865,7 @@
         <v>0</v>
       </c>
       <c r="AG27" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH27" t="b">
         <v>0</v>
@@ -11880,7 +11880,7 @@
         <v>1</v>
       </c>
       <c r="AL27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM27">
         <v>100</v>
@@ -11889,7 +11889,7 @@
         <v>200</v>
       </c>
       <c r="AO27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP27" t="b">
         <v>1</v>
@@ -11897,17 +11897,17 @@
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B28" t="str" cm="1">
         <f t="array" ref="B28">INDEX(_xlfn.TEXTSPLIT(A28,"/"),5)</f>
         <v>pandas</v>
       </c>
       <c r="C28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E28">
         <v>21</v>
@@ -11931,71 +11931,71 @@
         <v>1</v>
       </c>
       <c r="L28" t="s">
+        <v>49</v>
+      </c>
+      <c r="M28" t="b">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
         <v>50</v>
       </c>
-      <c r="M28" t="b">
-        <v>1</v>
-      </c>
-      <c r="N28" t="s">
-        <v>51</v>
-      </c>
       <c r="O28" t="b">
         <v>0</v>
       </c>
       <c r="P28" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q28" t="b">
+        <v>0</v>
+      </c>
+      <c r="R28" t="s">
         <v>164</v>
       </c>
-      <c r="Q28" t="b">
-        <v>0</v>
-      </c>
-      <c r="R28" t="s">
+      <c r="S28" t="b">
+        <v>1</v>
+      </c>
+      <c r="T28" t="b">
+        <v>0</v>
+      </c>
+      <c r="U28" t="b">
+        <v>0</v>
+      </c>
+      <c r="V28" t="b">
+        <v>0</v>
+      </c>
+      <c r="W28" t="b">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="s">
         <v>165</v>
       </c>
-      <c r="S28" t="b">
-        <v>1</v>
-      </c>
-      <c r="T28" t="b">
-        <v>0</v>
-      </c>
-      <c r="U28" t="b">
-        <v>0</v>
-      </c>
-      <c r="V28" t="b">
-        <v>0</v>
-      </c>
-      <c r="W28" t="b">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>166</v>
-      </c>
       <c r="AH28" t="b">
         <v>1</v>
       </c>
@@ -12009,7 +12009,7 @@
         <v>0</v>
       </c>
       <c r="AL28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM28">
         <v>100</v>
@@ -12018,7 +12018,7 @@
         <v>200</v>
       </c>
       <c r="AO28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AP28" t="b">
         <v>1</v>
@@ -12026,17 +12026,17 @@
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B29" t="str" cm="1">
         <f t="array" ref="B29">INDEX(_xlfn.TEXTSPLIT(A29,"/"),5)</f>
         <v>pandas</v>
       </c>
       <c r="C29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -12060,71 +12060,71 @@
         <v>1</v>
       </c>
       <c r="L29" t="s">
+        <v>49</v>
+      </c>
+      <c r="M29" t="b">
+        <v>0</v>
+      </c>
+      <c r="N29" t="s">
         <v>50</v>
       </c>
-      <c r="M29" t="b">
-        <v>0</v>
-      </c>
-      <c r="N29" t="s">
-        <v>51</v>
-      </c>
       <c r="O29" t="b">
         <v>0</v>
       </c>
       <c r="P29" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="Q29" t="b">
         <v>0</v>
       </c>
       <c r="R29" t="s">
+        <v>164</v>
+      </c>
+      <c r="S29" t="b">
+        <v>1</v>
+      </c>
+      <c r="T29" t="b">
+        <v>0</v>
+      </c>
+      <c r="U29" t="b">
+        <v>0</v>
+      </c>
+      <c r="V29" t="b">
+        <v>0</v>
+      </c>
+      <c r="W29" t="b">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="s">
         <v>165</v>
       </c>
-      <c r="S29" t="b">
-        <v>1</v>
-      </c>
-      <c r="T29" t="b">
-        <v>0</v>
-      </c>
-      <c r="U29" t="b">
-        <v>0</v>
-      </c>
-      <c r="V29" t="b">
-        <v>0</v>
-      </c>
-      <c r="W29" t="b">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z29" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG29" t="s">
-        <v>166</v>
-      </c>
       <c r="AH29" t="b">
         <v>1</v>
       </c>
@@ -12138,7 +12138,7 @@
         <v>0</v>
       </c>
       <c r="AL29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AM29">
         <v>100</v>
@@ -12147,7 +12147,7 @@
         <v>200</v>
       </c>
       <c r="AO29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AP29" t="b">
         <v>0</v>
@@ -12155,17 +12155,17 @@
     </row>
     <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B30" t="str" cm="1">
         <f t="array" ref="B30">INDEX(_xlfn.TEXTSPLIT(A30,"/"),5)</f>
         <v>pandas</v>
       </c>
       <c r="C30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E30">
         <v>21</v>
@@ -12189,25 +12189,25 @@
         <v>1</v>
       </c>
       <c r="L30" t="s">
+        <v>49</v>
+      </c>
+      <c r="M30" t="b">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
         <v>50</v>
       </c>
-      <c r="M30" t="b">
-        <v>1</v>
-      </c>
-      <c r="N30" t="s">
-        <v>51</v>
-      </c>
       <c r="O30" t="b">
         <v>0</v>
       </c>
       <c r="P30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Q30" t="b">
         <v>0</v>
       </c>
       <c r="R30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S30" t="b">
         <v>1</v>
@@ -12252,7 +12252,7 @@
         <v>0</v>
       </c>
       <c r="AG30" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH30" t="b">
         <v>0</v>
@@ -12267,7 +12267,7 @@
         <v>0</v>
       </c>
       <c r="AL30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM30">
         <v>100</v>
@@ -12276,7 +12276,7 @@
         <v>200</v>
       </c>
       <c r="AO30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP30" t="b">
         <v>1</v>
@@ -12284,60 +12284,60 @@
     </row>
     <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B31" t="str" cm="1">
         <f t="array" ref="B31">INDEX(_xlfn.TEXTSPLIT(A31,"/"),5)</f>
         <v>pandas</v>
       </c>
       <c r="C31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D31" t="s">
+        <v>169</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31" t="s">
+        <v>49</v>
+      </c>
+      <c r="M31" t="b">
+        <v>0</v>
+      </c>
+      <c r="N31" t="s">
+        <v>50</v>
+      </c>
+      <c r="O31" t="b">
+        <v>0</v>
+      </c>
+      <c r="P31" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q31" t="b">
+        <v>0</v>
+      </c>
+      <c r="R31" t="s">
         <v>170</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="K31" t="b">
-        <v>1</v>
-      </c>
-      <c r="L31" t="s">
-        <v>50</v>
-      </c>
-      <c r="M31" t="b">
-        <v>0</v>
-      </c>
-      <c r="N31" t="s">
-        <v>51</v>
-      </c>
-      <c r="O31" t="b">
-        <v>0</v>
-      </c>
-      <c r="P31" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q31" t="b">
-        <v>0</v>
-      </c>
-      <c r="R31" t="s">
-        <v>171</v>
-      </c>
       <c r="S31" t="b">
         <v>0</v>
       </c>
@@ -12381,7 +12381,7 @@
         <v>0</v>
       </c>
       <c r="AG31" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH31" t="b">
         <v>0</v>
@@ -12396,7 +12396,7 @@
         <v>0</v>
       </c>
       <c r="AL31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM31">
         <v>100</v>
@@ -12405,7 +12405,7 @@
         <v>200</v>
       </c>
       <c r="AO31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP31" t="b">
         <v>0</v>
@@ -12413,17 +12413,17 @@
     </row>
     <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B32" t="str" cm="1">
         <f t="array" ref="B32">INDEX(_xlfn.TEXTSPLIT(A32,"/"),5)</f>
         <v>pandas</v>
       </c>
       <c r="C32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -12447,25 +12447,25 @@
         <v>1</v>
       </c>
       <c r="L32" t="s">
+        <v>49</v>
+      </c>
+      <c r="M32" t="b">
+        <v>0</v>
+      </c>
+      <c r="N32" t="s">
         <v>50</v>
       </c>
-      <c r="M32" t="b">
-        <v>0</v>
-      </c>
-      <c r="N32" t="s">
-        <v>51</v>
-      </c>
       <c r="O32" t="b">
         <v>0</v>
       </c>
       <c r="P32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q32" t="b">
         <v>1</v>
       </c>
       <c r="R32" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="S32" t="b">
         <v>1</v>
@@ -12510,7 +12510,7 @@
         <v>0</v>
       </c>
       <c r="AG32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AH32" t="b">
         <v>1</v>
@@ -12525,7 +12525,7 @@
         <v>1</v>
       </c>
       <c r="AL32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM32">
         <v>100</v>
@@ -12534,7 +12534,7 @@
         <v>200</v>
       </c>
       <c r="AO32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP32" t="b">
         <v>0</v>
@@ -12542,17 +12542,17 @@
     </row>
     <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B33" t="str" cm="1">
         <f t="array" ref="B33">INDEX(_xlfn.TEXTSPLIT(A33,"/"),5)</f>
         <v>pandas</v>
       </c>
       <c r="C33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -12576,25 +12576,25 @@
         <v>1</v>
       </c>
       <c r="L33" t="s">
+        <v>49</v>
+      </c>
+      <c r="M33" t="b">
+        <v>0</v>
+      </c>
+      <c r="N33" t="s">
         <v>50</v>
       </c>
-      <c r="M33" t="b">
-        <v>0</v>
-      </c>
-      <c r="N33" t="s">
-        <v>51</v>
-      </c>
       <c r="O33" t="b">
         <v>0</v>
       </c>
       <c r="P33" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="Q33" t="b">
         <v>1</v>
       </c>
       <c r="R33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S33" t="b">
         <v>0</v>
@@ -12639,7 +12639,7 @@
         <v>0</v>
       </c>
       <c r="AG33" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH33" t="b">
         <v>0</v>
@@ -12654,7 +12654,7 @@
         <v>1</v>
       </c>
       <c r="AL33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM33">
         <v>100</v>
@@ -12663,7 +12663,7 @@
         <v>200</v>
       </c>
       <c r="AO33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP33" t="b">
         <v>0</v>
@@ -12671,17 +12671,17 @@
     </row>
     <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B34" t="str" cm="1">
         <f t="array" ref="B34">INDEX(_xlfn.TEXTSPLIT(A34,"/"),5)</f>
         <v>pandas</v>
       </c>
       <c r="C34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E34">
         <v>2</v>
@@ -12705,25 +12705,25 @@
         <v>1</v>
       </c>
       <c r="L34" t="s">
+        <v>49</v>
+      </c>
+      <c r="M34" t="b">
+        <v>0</v>
+      </c>
+      <c r="N34" t="s">
         <v>50</v>
       </c>
-      <c r="M34" t="b">
-        <v>0</v>
-      </c>
-      <c r="N34" t="s">
-        <v>51</v>
-      </c>
       <c r="O34" t="b">
         <v>0</v>
       </c>
       <c r="P34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q34" t="b">
         <v>1</v>
       </c>
       <c r="R34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S34" t="b">
         <v>1</v>
@@ -12768,7 +12768,7 @@
         <v>0</v>
       </c>
       <c r="AG34" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH34" t="b">
         <v>0</v>
@@ -12783,7 +12783,7 @@
         <v>1</v>
       </c>
       <c r="AL34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM34">
         <v>100</v>
@@ -12792,7 +12792,7 @@
         <v>200</v>
       </c>
       <c r="AO34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP34" t="b">
         <v>0</v>
@@ -12800,17 +12800,17 @@
     </row>
     <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B35" t="str" cm="1">
         <f t="array" ref="B35">INDEX(_xlfn.TEXTSPLIT(A35,"/"),5)</f>
         <v>pandas</v>
       </c>
       <c r="C35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E35">
         <v>3</v>
@@ -12834,25 +12834,25 @@
         <v>1</v>
       </c>
       <c r="L35" t="s">
+        <v>49</v>
+      </c>
+      <c r="M35" t="b">
+        <v>0</v>
+      </c>
+      <c r="N35" t="s">
         <v>50</v>
       </c>
-      <c r="M35" t="b">
-        <v>0</v>
-      </c>
-      <c r="N35" t="s">
-        <v>51</v>
-      </c>
       <c r="O35" t="b">
         <v>0</v>
       </c>
       <c r="P35" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="Q35" t="b">
         <v>1</v>
       </c>
       <c r="R35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S35" t="b">
         <v>1</v>
@@ -12897,7 +12897,7 @@
         <v>0</v>
       </c>
       <c r="AG35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AH35" t="b">
         <v>0</v>
@@ -12912,7 +12912,7 @@
         <v>1</v>
       </c>
       <c r="AL35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM35">
         <v>100</v>
@@ -12921,7 +12921,7 @@
         <v>200</v>
       </c>
       <c r="AO35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP35" t="b">
         <v>0</v>
@@ -12929,17 +12929,17 @@
     </row>
     <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B36" t="str" cm="1">
         <f t="array" ref="B36">INDEX(_xlfn.TEXTSPLIT(A36,"/"),5)</f>
         <v>pandas</v>
       </c>
       <c r="C36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -12963,25 +12963,25 @@
         <v>1</v>
       </c>
       <c r="L36" t="s">
+        <v>49</v>
+      </c>
+      <c r="M36" t="b">
+        <v>0</v>
+      </c>
+      <c r="N36" t="s">
         <v>50</v>
       </c>
-      <c r="M36" t="b">
-        <v>0</v>
-      </c>
-      <c r="N36" t="s">
-        <v>51</v>
-      </c>
       <c r="O36" t="b">
         <v>0</v>
       </c>
       <c r="P36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q36" t="b">
         <v>0</v>
       </c>
       <c r="R36" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="S36" t="b">
         <v>1</v>
@@ -13026,7 +13026,7 @@
         <v>0</v>
       </c>
       <c r="AG36" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH36" t="b">
         <v>0</v>
@@ -13041,7 +13041,7 @@
         <v>0</v>
       </c>
       <c r="AL36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM36">
         <v>100</v>
@@ -13050,7 +13050,7 @@
         <v>200</v>
       </c>
       <c r="AO36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP36" t="b">
         <v>0</v>
@@ -13058,17 +13058,17 @@
     </row>
     <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B37" t="str" cm="1">
         <f t="array" ref="B37">INDEX(_xlfn.TEXTSPLIT(A37,"/"),5)</f>
         <v>pandas</v>
       </c>
       <c r="C37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D37" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E37">
         <v>2</v>
@@ -13092,25 +13092,25 @@
         <v>1</v>
       </c>
       <c r="L37" t="s">
+        <v>49</v>
+      </c>
+      <c r="M37" t="b">
+        <v>0</v>
+      </c>
+      <c r="N37" t="s">
         <v>50</v>
       </c>
-      <c r="M37" t="b">
-        <v>0</v>
-      </c>
-      <c r="N37" t="s">
-        <v>51</v>
-      </c>
       <c r="O37" t="b">
         <v>0</v>
       </c>
       <c r="P37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q37" t="b">
         <v>0</v>
       </c>
       <c r="R37" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="S37" t="b">
         <v>1</v>
@@ -13155,7 +13155,7 @@
         <v>0</v>
       </c>
       <c r="AG37" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH37" t="b">
         <v>1</v>
@@ -13170,7 +13170,7 @@
         <v>0</v>
       </c>
       <c r="AL37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AM37">
         <v>100</v>
@@ -13179,7 +13179,7 @@
         <v>200</v>
       </c>
       <c r="AO37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP37" t="b">
         <v>1</v>
@@ -13187,17 +13187,17 @@
     </row>
     <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B38" t="str" cm="1">
         <f t="array" ref="B38">INDEX(_xlfn.TEXTSPLIT(A38,"/"),5)</f>
         <v>streamlit</v>
       </c>
       <c r="C38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -13221,25 +13221,25 @@
         <v>1</v>
       </c>
       <c r="L38" t="s">
+        <v>49</v>
+      </c>
+      <c r="M38" t="b">
+        <v>0</v>
+      </c>
+      <c r="N38" t="s">
         <v>50</v>
       </c>
-      <c r="M38" t="b">
-        <v>0</v>
-      </c>
-      <c r="N38" t="s">
-        <v>51</v>
-      </c>
       <c r="O38" t="b">
         <v>0</v>
       </c>
       <c r="P38" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="Q38" t="b">
         <v>0</v>
       </c>
       <c r="R38" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="S38" t="b">
         <v>0</v>
@@ -13284,7 +13284,7 @@
         <v>0</v>
       </c>
       <c r="AG38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH38" t="b">
         <v>0</v>
@@ -13299,7 +13299,7 @@
         <v>0</v>
       </c>
       <c r="AL38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM38">
         <v>100</v>
@@ -13308,7 +13308,7 @@
         <v>400</v>
       </c>
       <c r="AO38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP38" t="b">
         <v>1</v>
@@ -13316,17 +13316,17 @@
     </row>
     <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B39" t="str" cm="1">
         <f t="array" ref="B39">INDEX(_xlfn.TEXTSPLIT(A39,"/"),5)</f>
         <v>streamlit</v>
       </c>
       <c r="C39" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -13350,25 +13350,25 @@
         <v>1</v>
       </c>
       <c r="L39" t="s">
+        <v>49</v>
+      </c>
+      <c r="M39" t="b">
+        <v>0</v>
+      </c>
+      <c r="N39" t="s">
         <v>50</v>
       </c>
-      <c r="M39" t="b">
-        <v>0</v>
-      </c>
-      <c r="N39" t="s">
-        <v>51</v>
-      </c>
       <c r="O39" t="b">
         <v>0</v>
       </c>
       <c r="P39" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Q39" t="b">
         <v>0</v>
       </c>
       <c r="R39" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="S39" t="b">
         <v>0</v>
@@ -13413,7 +13413,7 @@
         <v>0</v>
       </c>
       <c r="AG39" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH39" t="b">
         <v>0</v>
@@ -13428,7 +13428,7 @@
         <v>0</v>
       </c>
       <c r="AL39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM39">
         <v>100</v>
@@ -13437,7 +13437,7 @@
         <v>400</v>
       </c>
       <c r="AO39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP39" t="b">
         <v>1</v>
@@ -13445,17 +13445,17 @@
     </row>
     <row r="40" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B40" t="str" cm="1">
         <f t="array" ref="B40">INDEX(_xlfn.TEXTSPLIT(A40,"/"),5)</f>
         <v>streamlit</v>
       </c>
       <c r="C40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -13479,25 +13479,25 @@
         <v>1</v>
       </c>
       <c r="L40" t="s">
+        <v>49</v>
+      </c>
+      <c r="M40" t="b">
+        <v>0</v>
+      </c>
+      <c r="N40" t="s">
         <v>50</v>
       </c>
-      <c r="M40" t="b">
-        <v>0</v>
-      </c>
-      <c r="N40" t="s">
-        <v>51</v>
-      </c>
       <c r="O40" t="b">
         <v>0</v>
       </c>
       <c r="P40" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Q40" t="b">
         <v>0</v>
       </c>
       <c r="R40" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="S40" t="b">
         <v>0</v>
@@ -13542,7 +13542,7 @@
         <v>0</v>
       </c>
       <c r="AG40" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH40" t="b">
         <v>0</v>
@@ -13557,7 +13557,7 @@
         <v>0</v>
       </c>
       <c r="AL40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM40">
         <v>100</v>
@@ -13566,7 +13566,7 @@
         <v>400</v>
       </c>
       <c r="AO40" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP40" t="b">
         <v>1</v>
@@ -13574,17 +13574,17 @@
     </row>
     <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B41" t="str" cm="1">
         <f t="array" ref="B41">INDEX(_xlfn.TEXTSPLIT(A41,"/"),5)</f>
         <v>streamlit</v>
       </c>
       <c r="C41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D41" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E41">
         <v>2</v>
@@ -13608,25 +13608,25 @@
         <v>1</v>
       </c>
       <c r="L41" t="s">
+        <v>49</v>
+      </c>
+      <c r="M41" t="b">
+        <v>0</v>
+      </c>
+      <c r="N41" t="s">
         <v>50</v>
       </c>
-      <c r="M41" t="b">
-        <v>0</v>
-      </c>
-      <c r="N41" t="s">
-        <v>51</v>
-      </c>
       <c r="O41" t="b">
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Q41" t="b">
         <v>0</v>
       </c>
       <c r="R41" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="S41" t="b">
         <v>1</v>
@@ -13671,7 +13671,7 @@
         <v>0</v>
       </c>
       <c r="AG41" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH41" t="b">
         <v>0</v>
@@ -13686,7 +13686,7 @@
         <v>0</v>
       </c>
       <c r="AL41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM41">
         <v>100</v>
@@ -13695,7 +13695,7 @@
         <v>200</v>
       </c>
       <c r="AO41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP41" t="b">
         <v>0</v>
@@ -13703,17 +13703,17 @@
     </row>
     <row r="42" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B42" t="str" cm="1">
         <f t="array" ref="B42">INDEX(_xlfn.TEXTSPLIT(A42,"/"),5)</f>
         <v>streamlit</v>
       </c>
       <c r="C42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -13737,25 +13737,25 @@
         <v>1</v>
       </c>
       <c r="L42" t="s">
+        <v>49</v>
+      </c>
+      <c r="M42" t="b">
+        <v>0</v>
+      </c>
+      <c r="N42" t="s">
         <v>50</v>
       </c>
-      <c r="M42" t="b">
-        <v>0</v>
-      </c>
-      <c r="N42" t="s">
-        <v>51</v>
-      </c>
       <c r="O42" t="b">
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q42" t="b">
         <v>0</v>
       </c>
       <c r="R42" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S42" t="b">
         <v>1</v>
@@ -13800,7 +13800,7 @@
         <v>0</v>
       </c>
       <c r="AG42" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH42" t="b">
         <v>0</v>
@@ -13815,7 +13815,7 @@
         <v>0</v>
       </c>
       <c r="AL42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM42">
         <v>100</v>
@@ -13824,7 +13824,7 @@
         <v>200</v>
       </c>
       <c r="AO42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP42" t="b">
         <v>0</v>
@@ -13832,17 +13832,17 @@
     </row>
     <row r="43" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B43" t="str" cm="1">
         <f t="array" ref="B43">INDEX(_xlfn.TEXTSPLIT(A43,"/"),5)</f>
         <v>streamlit</v>
       </c>
       <c r="C43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -13866,25 +13866,25 @@
         <v>1</v>
       </c>
       <c r="L43" t="s">
+        <v>49</v>
+      </c>
+      <c r="M43" t="b">
+        <v>0</v>
+      </c>
+      <c r="N43" t="s">
         <v>50</v>
       </c>
-      <c r="M43" t="b">
-        <v>0</v>
-      </c>
-      <c r="N43" t="s">
-        <v>51</v>
-      </c>
       <c r="O43" t="b">
         <v>0</v>
       </c>
       <c r="P43" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Q43" t="b">
         <v>0</v>
       </c>
       <c r="R43" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="S43" t="b">
         <v>0</v>
@@ -13929,7 +13929,7 @@
         <v>0</v>
       </c>
       <c r="AG43" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH43" t="b">
         <v>0</v>
@@ -13944,7 +13944,7 @@
         <v>0</v>
       </c>
       <c r="AL43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM43">
         <v>100</v>
@@ -13953,7 +13953,7 @@
         <v>200</v>
       </c>
       <c r="AO43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP43" t="b">
         <v>0</v>
@@ -13961,60 +13961,60 @@
     </row>
     <row r="44" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B44" t="str" cm="1">
         <f t="array" ref="B44">INDEX(_xlfn.TEXTSPLIT(A44,"/"),5)</f>
         <v>gradio</v>
       </c>
       <c r="C44" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D44" t="s">
+        <v>210</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" t="s">
+        <v>49</v>
+      </c>
+      <c r="M44" t="b">
+        <v>0</v>
+      </c>
+      <c r="N44" t="s">
+        <v>50</v>
+      </c>
+      <c r="O44" t="b">
+        <v>0</v>
+      </c>
+      <c r="P44" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q44" t="b">
+        <v>0</v>
+      </c>
+      <c r="R44" t="s">
         <v>211</v>
       </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>1</v>
-      </c>
-      <c r="K44" t="b">
-        <v>1</v>
-      </c>
-      <c r="L44" t="s">
-        <v>50</v>
-      </c>
-      <c r="M44" t="b">
-        <v>0</v>
-      </c>
-      <c r="N44" t="s">
-        <v>51</v>
-      </c>
-      <c r="O44" t="b">
-        <v>0</v>
-      </c>
-      <c r="P44" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q44" t="b">
-        <v>0</v>
-      </c>
-      <c r="R44" t="s">
-        <v>212</v>
-      </c>
       <c r="S44" t="b">
         <v>1</v>
       </c>
@@ -14058,13 +14058,13 @@
         <v>0</v>
       </c>
       <c r="AG44" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH44" t="b">
         <v>1</v>
       </c>
       <c r="AI44" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AJ44" t="b">
         <v>0</v>
@@ -14073,7 +14073,7 @@
         <v>0</v>
       </c>
       <c r="AL44" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM44">
         <v>100</v>
@@ -14082,7 +14082,7 @@
         <v>200</v>
       </c>
       <c r="AO44" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP44" t="b">
         <v>1</v>
@@ -14090,17 +14090,17 @@
     </row>
     <row r="45" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B45" t="str" cm="1">
         <f t="array" ref="B45">INDEX(_xlfn.TEXTSPLIT(A45,"/"),5)</f>
         <v>gradio</v>
       </c>
       <c r="C45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D45" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E45">
         <v>3</v>
@@ -14124,26 +14124,26 @@
         <v>1</v>
       </c>
       <c r="L45" t="s">
+        <v>49</v>
+      </c>
+      <c r="M45" t="b">
+        <v>0</v>
+      </c>
+      <c r="N45" t="s">
         <v>50</v>
       </c>
-      <c r="M45" t="b">
-        <v>0</v>
-      </c>
-      <c r="N45" t="s">
-        <v>51</v>
-      </c>
       <c r="O45" t="b">
         <v>0</v>
       </c>
       <c r="P45" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q45" t="b">
+        <v>0</v>
+      </c>
+      <c r="R45" t="s">
         <v>215</v>
       </c>
-      <c r="Q45" t="b">
-        <v>0</v>
-      </c>
-      <c r="R45" t="s">
-        <v>216</v>
-      </c>
       <c r="S45" t="b">
         <v>1</v>
       </c>
@@ -14187,13 +14187,13 @@
         <v>0</v>
       </c>
       <c r="AG45" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH45" t="b">
         <v>1</v>
       </c>
       <c r="AI45" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AJ45" t="b">
         <v>0</v>
@@ -14202,7 +14202,7 @@
         <v>0</v>
       </c>
       <c r="AL45" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM45">
         <v>100</v>
@@ -14211,7 +14211,7 @@
         <v>200</v>
       </c>
       <c r="AO45" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP45" t="b">
         <v>0</v>
@@ -14219,17 +14219,17 @@
     </row>
     <row r="46" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B46" t="str" cm="1">
         <f t="array" ref="B46">INDEX(_xlfn.TEXTSPLIT(A46,"/"),5)</f>
         <v>jax</v>
       </c>
       <c r="C46" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D46" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -14253,25 +14253,25 @@
         <v>1</v>
       </c>
       <c r="L46" t="s">
+        <v>49</v>
+      </c>
+      <c r="M46" t="b">
+        <v>0</v>
+      </c>
+      <c r="N46" t="s">
         <v>50</v>
       </c>
-      <c r="M46" t="b">
-        <v>0</v>
-      </c>
-      <c r="N46" t="s">
-        <v>51</v>
-      </c>
       <c r="O46" t="b">
         <v>0</v>
       </c>
       <c r="P46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q46" t="b">
         <v>1</v>
       </c>
       <c r="R46" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="S46" t="b">
         <v>1</v>
@@ -14316,7 +14316,7 @@
         <v>0</v>
       </c>
       <c r="AG46" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH46" t="b">
         <v>0</v>
@@ -14331,7 +14331,7 @@
         <v>0</v>
       </c>
       <c r="AL46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM46">
         <v>100</v>
@@ -14340,7 +14340,7 @@
         <v>200</v>
       </c>
       <c r="AO46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP46" t="b">
         <v>1</v>
@@ -14348,17 +14348,17 @@
     </row>
     <row r="47" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B47" t="str" cm="1">
         <f t="array" ref="B47">INDEX(_xlfn.TEXTSPLIT(A47,"/"),5)</f>
         <v>jax</v>
       </c>
       <c r="C47" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D47" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -14382,25 +14382,25 @@
         <v>1</v>
       </c>
       <c r="L47" t="s">
+        <v>49</v>
+      </c>
+      <c r="M47" t="b">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
         <v>50</v>
       </c>
-      <c r="M47" t="b">
-        <v>1</v>
-      </c>
-      <c r="N47" t="s">
-        <v>51</v>
-      </c>
       <c r="O47" t="b">
         <v>0</v>
       </c>
       <c r="P47" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q47" t="b">
         <v>1</v>
       </c>
       <c r="R47" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S47" t="b">
         <v>1</v>
@@ -14445,7 +14445,7 @@
         <v>0</v>
       </c>
       <c r="AG47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH47" t="b">
         <v>0</v>
@@ -14460,7 +14460,7 @@
         <v>0</v>
       </c>
       <c r="AL47" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM47">
         <v>100</v>
@@ -14469,7 +14469,7 @@
         <v>200</v>
       </c>
       <c r="AO47" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP47" t="b">
         <v>0</v>
@@ -14477,17 +14477,17 @@
     </row>
     <row r="48" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B48" t="str" cm="1">
         <f t="array" ref="B48">INDEX(_xlfn.TEXTSPLIT(A48,"/"),5)</f>
         <v>jax</v>
       </c>
       <c r="C48" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D48" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -14511,25 +14511,25 @@
         <v>1</v>
       </c>
       <c r="L48" t="s">
+        <v>49</v>
+      </c>
+      <c r="M48" t="b">
+        <v>0</v>
+      </c>
+      <c r="N48" t="s">
         <v>50</v>
       </c>
-      <c r="M48" t="b">
-        <v>0</v>
-      </c>
-      <c r="N48" t="s">
-        <v>51</v>
-      </c>
       <c r="O48" t="b">
         <v>0</v>
       </c>
       <c r="P48" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q48" t="b">
         <v>0</v>
       </c>
       <c r="R48" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="S48" t="b">
         <v>1</v>
@@ -14574,7 +14574,7 @@
         <v>0</v>
       </c>
       <c r="AG48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH48" t="b">
         <v>0</v>
@@ -14589,7 +14589,7 @@
         <v>0</v>
       </c>
       <c r="AL48" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM48">
         <v>100</v>
@@ -14598,7 +14598,7 @@
         <v>200</v>
       </c>
       <c r="AO48" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AP48" t="b">
         <v>1</v>
@@ -14606,17 +14606,17 @@
     </row>
     <row r="49" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B49" t="str" cm="1">
         <f t="array" ref="B49">INDEX(_xlfn.TEXTSPLIT(A49,"/"),5)</f>
         <v>jax</v>
       </c>
       <c r="C49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D49" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E49">
         <v>2</v>
@@ -14640,25 +14640,25 @@
         <v>1</v>
       </c>
       <c r="L49" t="s">
+        <v>49</v>
+      </c>
+      <c r="M49" t="b">
+        <v>0</v>
+      </c>
+      <c r="N49" t="s">
         <v>50</v>
       </c>
-      <c r="M49" t="b">
-        <v>0</v>
-      </c>
-      <c r="N49" t="s">
-        <v>51</v>
-      </c>
       <c r="O49" t="b">
         <v>0</v>
       </c>
       <c r="P49" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q49" t="b">
         <v>0</v>
       </c>
       <c r="R49" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S49" t="b">
         <v>1</v>
@@ -14703,7 +14703,7 @@
         <v>0</v>
       </c>
       <c r="AG49" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH49" t="b">
         <v>0</v>
@@ -14718,7 +14718,7 @@
         <v>0</v>
       </c>
       <c r="AL49" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM49">
         <v>100</v>
@@ -14727,7 +14727,7 @@
         <v>200</v>
       </c>
       <c r="AO49" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AP49" t="b">
         <v>1</v>
@@ -14735,17 +14735,17 @@
     </row>
     <row r="50" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B50" t="str" cm="1">
         <f t="array" ref="B50">INDEX(_xlfn.TEXTSPLIT(A50,"/"),5)</f>
         <v>jax</v>
       </c>
       <c r="C50" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D50" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -14769,25 +14769,25 @@
         <v>1</v>
       </c>
       <c r="L50" t="s">
+        <v>49</v>
+      </c>
+      <c r="M50" t="b">
+        <v>0</v>
+      </c>
+      <c r="N50" t="s">
         <v>50</v>
       </c>
-      <c r="M50" t="b">
-        <v>0</v>
-      </c>
-      <c r="N50" t="s">
-        <v>51</v>
-      </c>
       <c r="O50" t="b">
         <v>0</v>
       </c>
       <c r="P50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q50" t="b">
         <v>0</v>
       </c>
       <c r="R50" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="S50" t="b">
         <v>1</v>
@@ -14832,7 +14832,7 @@
         <v>0</v>
       </c>
       <c r="AG50" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH50" t="b">
         <v>0</v>
@@ -14847,7 +14847,7 @@
         <v>0</v>
       </c>
       <c r="AL50" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM50">
         <v>100</v>
@@ -14856,7 +14856,7 @@
         <v>200</v>
       </c>
       <c r="AO50" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP50" t="b">
         <v>0</v>
@@ -14864,17 +14864,17 @@
     </row>
     <row r="51" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B51" t="str" cm="1">
         <f t="array" ref="B51">INDEX(_xlfn.TEXTSPLIT(A51,"/"),5)</f>
         <v>jax</v>
       </c>
       <c r="C51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D51" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -14898,25 +14898,25 @@
         <v>1</v>
       </c>
       <c r="L51" t="s">
+        <v>49</v>
+      </c>
+      <c r="M51" t="b">
+        <v>0</v>
+      </c>
+      <c r="N51" t="s">
         <v>50</v>
       </c>
-      <c r="M51" t="b">
-        <v>0</v>
-      </c>
-      <c r="N51" t="s">
-        <v>51</v>
-      </c>
       <c r="O51" t="b">
         <v>0</v>
       </c>
       <c r="P51" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q51" t="b">
         <v>0</v>
       </c>
       <c r="R51" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="S51" t="b">
         <v>1</v>
@@ -14961,7 +14961,7 @@
         <v>0</v>
       </c>
       <c r="AG51" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH51" t="b">
         <v>0</v>
@@ -14976,7 +14976,7 @@
         <v>0</v>
       </c>
       <c r="AL51" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM51">
         <v>100</v>
@@ -14985,7 +14985,7 @@
         <v>200</v>
       </c>
       <c r="AO51" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AP51" t="b">
         <v>1</v>
@@ -14993,17 +14993,17 @@
     </row>
     <row r="52" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B52" t="str" cm="1">
         <f t="array" ref="B52">INDEX(_xlfn.TEXTSPLIT(A52,"/"),5)</f>
         <v>jax</v>
       </c>
       <c r="C52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D52" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -15027,25 +15027,25 @@
         <v>1</v>
       </c>
       <c r="L52" t="s">
+        <v>49</v>
+      </c>
+      <c r="M52" t="b">
+        <v>0</v>
+      </c>
+      <c r="N52" t="s">
         <v>50</v>
       </c>
-      <c r="M52" t="b">
-        <v>0</v>
-      </c>
-      <c r="N52" t="s">
-        <v>51</v>
-      </c>
       <c r="O52" t="b">
         <v>0</v>
       </c>
       <c r="P52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q52" t="b">
         <v>1</v>
       </c>
       <c r="R52" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="S52" t="b">
         <v>1</v>
@@ -15090,7 +15090,7 @@
         <v>0</v>
       </c>
       <c r="AG52" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH52" t="b">
         <v>1</v>
@@ -15105,7 +15105,7 @@
         <v>0</v>
       </c>
       <c r="AL52" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM52">
         <v>100</v>
@@ -15114,7 +15114,7 @@
         <v>200</v>
       </c>
       <c r="AO52" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AP52" t="b">
         <v>1</v>
@@ -15122,60 +15122,60 @@
     </row>
     <row r="53" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B53" t="str" cm="1">
         <f t="array" ref="B53">INDEX(_xlfn.TEXTSPLIT(A53,"/"),5)</f>
         <v>jax</v>
       </c>
       <c r="C53" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D53" t="s">
+        <v>285</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" t="s">
+        <v>49</v>
+      </c>
+      <c r="M53" t="b">
+        <v>0</v>
+      </c>
+      <c r="N53" t="s">
+        <v>50</v>
+      </c>
+      <c r="O53" t="b">
+        <v>0</v>
+      </c>
+      <c r="P53" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q53" t="b">
+        <v>0</v>
+      </c>
+      <c r="R53" t="s">
         <v>286</v>
       </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>1</v>
-      </c>
-      <c r="K53" t="b">
-        <v>1</v>
-      </c>
-      <c r="L53" t="s">
-        <v>50</v>
-      </c>
-      <c r="M53" t="b">
-        <v>0</v>
-      </c>
-      <c r="N53" t="s">
-        <v>51</v>
-      </c>
-      <c r="O53" t="b">
-        <v>0</v>
-      </c>
-      <c r="P53" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q53" t="b">
-        <v>0</v>
-      </c>
-      <c r="R53" t="s">
-        <v>287</v>
-      </c>
       <c r="S53" t="b">
         <v>1</v>
       </c>
@@ -15219,7 +15219,7 @@
         <v>0</v>
       </c>
       <c r="AG53" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH53" t="b">
         <v>0</v>
@@ -15234,7 +15234,7 @@
         <v>0</v>
       </c>
       <c r="AL53" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM53">
         <v>100</v>
@@ -15243,7 +15243,7 @@
         <v>200</v>
       </c>
       <c r="AO53" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AP53" t="b">
         <v>1</v>
@@ -15251,17 +15251,17 @@
     </row>
     <row r="54" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B54" t="str" cm="1">
         <f t="array" ref="B54">INDEX(_xlfn.TEXTSPLIT(A54,"/"),5)</f>
         <v>jax</v>
       </c>
       <c r="C54" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D54" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -15285,25 +15285,25 @@
         <v>1</v>
       </c>
       <c r="L54" t="s">
+        <v>49</v>
+      </c>
+      <c r="M54" t="b">
+        <v>0</v>
+      </c>
+      <c r="N54" t="s">
         <v>50</v>
       </c>
-      <c r="M54" t="b">
-        <v>0</v>
-      </c>
-      <c r="N54" t="s">
+      <c r="O54" t="b">
+        <v>0</v>
+      </c>
+      <c r="P54" t="s">
         <v>51</v>
       </c>
-      <c r="O54" t="b">
-        <v>0</v>
-      </c>
-      <c r="P54" t="s">
-        <v>52</v>
-      </c>
       <c r="Q54" t="b">
         <v>0</v>
       </c>
       <c r="R54" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="S54" t="b">
         <v>0</v>
@@ -15348,7 +15348,7 @@
         <v>0</v>
       </c>
       <c r="AG54" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH54" t="b">
         <v>1</v>
@@ -15363,7 +15363,7 @@
         <v>0</v>
       </c>
       <c r="AL54" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM54">
         <v>100</v>
@@ -15372,7 +15372,7 @@
         <v>200</v>
       </c>
       <c r="AO54" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AP54" t="b">
         <v>0</v>
@@ -15380,17 +15380,17 @@
     </row>
     <row r="55" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B55" t="str" cm="1">
         <f t="array" ref="B55">INDEX(_xlfn.TEXTSPLIT(A55,"/"),5)</f>
         <v>jax</v>
       </c>
       <c r="C55" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D55" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -15414,25 +15414,25 @@
         <v>1</v>
       </c>
       <c r="L55" t="s">
+        <v>49</v>
+      </c>
+      <c r="M55" t="b">
+        <v>0</v>
+      </c>
+      <c r="N55" t="s">
         <v>50</v>
       </c>
-      <c r="M55" t="b">
-        <v>0</v>
-      </c>
-      <c r="N55" t="s">
+      <c r="O55" t="b">
+        <v>0</v>
+      </c>
+      <c r="P55" t="s">
         <v>51</v>
       </c>
-      <c r="O55" t="b">
-        <v>0</v>
-      </c>
-      <c r="P55" t="s">
-        <v>52</v>
-      </c>
       <c r="Q55" t="b">
         <v>0</v>
       </c>
       <c r="R55" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="S55" t="b">
         <v>0</v>
@@ -15477,7 +15477,7 @@
         <v>0</v>
       </c>
       <c r="AG55" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH55" t="b">
         <v>1</v>
@@ -15492,7 +15492,7 @@
         <v>0</v>
       </c>
       <c r="AL55" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM55">
         <v>100</v>
@@ -15501,7 +15501,7 @@
         <v>200</v>
       </c>
       <c r="AO55" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AP55" t="b">
         <v>0</v>
@@ -15509,17 +15509,17 @@
     </row>
     <row r="56" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B56" t="str" cm="1">
         <f t="array" ref="B56">INDEX(_xlfn.TEXTSPLIT(A56,"/"),5)</f>
         <v>jax</v>
       </c>
       <c r="C56" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D56" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E56">
         <v>5</v>
@@ -15543,25 +15543,25 @@
         <v>1</v>
       </c>
       <c r="L56" t="s">
+        <v>49</v>
+      </c>
+      <c r="M56" t="b">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
         <v>50</v>
       </c>
-      <c r="M56" t="b">
-        <v>1</v>
-      </c>
-      <c r="N56" t="s">
-        <v>51</v>
-      </c>
       <c r="O56" t="b">
         <v>0</v>
       </c>
       <c r="P56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q56" t="b">
         <v>0</v>
       </c>
       <c r="R56" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="S56" t="b">
         <v>1</v>
@@ -15606,7 +15606,7 @@
         <v>0</v>
       </c>
       <c r="AG56" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH56" t="b">
         <v>0</v>
@@ -15621,7 +15621,7 @@
         <v>0</v>
       </c>
       <c r="AL56" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM56">
         <v>100</v>
@@ -15630,7 +15630,7 @@
         <v>200</v>
       </c>
       <c r="AO56" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP56" t="b">
         <v>1</v>
@@ -15638,17 +15638,17 @@
     </row>
     <row r="57" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B57" t="str" cm="1">
         <f t="array" ref="B57">INDEX(_xlfn.TEXTSPLIT(A57,"/"),5)</f>
         <v>jax</v>
       </c>
       <c r="C57" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D57" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E57">
         <v>5</v>
@@ -15672,25 +15672,25 @@
         <v>1</v>
       </c>
       <c r="L57" t="s">
+        <v>49</v>
+      </c>
+      <c r="M57" t="b">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
         <v>50</v>
       </c>
-      <c r="M57" t="b">
-        <v>1</v>
-      </c>
-      <c r="N57" t="s">
-        <v>51</v>
-      </c>
       <c r="O57" t="b">
         <v>0</v>
       </c>
       <c r="P57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q57" t="b">
         <v>0</v>
       </c>
       <c r="R57" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S57" t="b">
         <v>1</v>
@@ -15735,7 +15735,7 @@
         <v>0</v>
       </c>
       <c r="AG57" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH57" t="b">
         <v>0</v>
@@ -15750,7 +15750,7 @@
         <v>0</v>
       </c>
       <c r="AL57" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM57">
         <v>100</v>
@@ -15759,7 +15759,7 @@
         <v>200</v>
       </c>
       <c r="AO57" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AP57" t="b">
         <v>1</v>
@@ -15767,17 +15767,17 @@
     </row>
     <row r="58" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B58" t="str" cm="1">
         <f t="array" ref="B58">INDEX(_xlfn.TEXTSPLIT(A58,"/"),5)</f>
         <v>jax</v>
       </c>
       <c r="C58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D58" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E58">
         <v>5</v>
@@ -15801,25 +15801,25 @@
         <v>1</v>
       </c>
       <c r="L58" t="s">
+        <v>49</v>
+      </c>
+      <c r="M58" t="b">
+        <v>0</v>
+      </c>
+      <c r="N58" t="s">
         <v>50</v>
       </c>
-      <c r="M58" t="b">
-        <v>0</v>
-      </c>
-      <c r="N58" t="s">
-        <v>51</v>
-      </c>
       <c r="O58" t="b">
         <v>0</v>
       </c>
       <c r="P58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q58" t="b">
         <v>0</v>
       </c>
       <c r="R58" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S58" t="b">
         <v>1</v>
@@ -15864,7 +15864,7 @@
         <v>0</v>
       </c>
       <c r="AG58" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH58" t="b">
         <v>0</v>
@@ -15879,7 +15879,7 @@
         <v>0</v>
       </c>
       <c r="AL58" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM58">
         <v>100</v>
@@ -15888,7 +15888,7 @@
         <v>200</v>
       </c>
       <c r="AO58" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP58" t="b">
         <v>1</v>
@@ -15896,17 +15896,17 @@
     </row>
     <row r="59" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B59" t="str" cm="1">
         <f t="array" ref="B59">INDEX(_xlfn.TEXTSPLIT(A59,"/"),5)</f>
         <v>jax</v>
       </c>
       <c r="C59" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D59" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E59">
         <v>2</v>
@@ -15930,25 +15930,25 @@
         <v>1</v>
       </c>
       <c r="L59" t="s">
+        <v>49</v>
+      </c>
+      <c r="M59" t="b">
+        <v>0</v>
+      </c>
+      <c r="N59" t="s">
         <v>50</v>
       </c>
-      <c r="M59" t="b">
-        <v>0</v>
-      </c>
-      <c r="N59" t="s">
-        <v>51</v>
-      </c>
       <c r="O59" t="b">
         <v>0</v>
       </c>
       <c r="P59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q59" t="b">
         <v>0</v>
       </c>
       <c r="R59" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="S59" t="b">
         <v>1</v>
@@ -15993,7 +15993,7 @@
         <v>0</v>
       </c>
       <c r="AG59" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH59" t="b">
         <v>0</v>
@@ -16008,7 +16008,7 @@
         <v>0</v>
       </c>
       <c r="AL59" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM59">
         <v>100</v>
@@ -16017,7 +16017,7 @@
         <v>200</v>
       </c>
       <c r="AO59" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AP59" t="b">
         <v>1</v>
@@ -16025,17 +16025,17 @@
     </row>
     <row r="60" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B60" t="str" cm="1">
         <f t="array" ref="B60">INDEX(_xlfn.TEXTSPLIT(A60,"/"),5)</f>
         <v>jax</v>
       </c>
       <c r="C60" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D60" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -16059,25 +16059,25 @@
         <v>1</v>
       </c>
       <c r="L60" t="s">
+        <v>49</v>
+      </c>
+      <c r="M60" t="b">
+        <v>0</v>
+      </c>
+      <c r="N60" t="s">
         <v>50</v>
       </c>
-      <c r="M60" t="b">
-        <v>0</v>
-      </c>
-      <c r="N60" t="s">
-        <v>51</v>
-      </c>
       <c r="O60" t="b">
         <v>0</v>
       </c>
       <c r="P60" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q60" t="b">
         <v>1</v>
       </c>
       <c r="R60" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="S60" t="b">
         <v>1</v>
@@ -16122,7 +16122,7 @@
         <v>0</v>
       </c>
       <c r="AG60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH60" t="b">
         <v>0</v>
@@ -16137,7 +16137,7 @@
         <v>0</v>
       </c>
       <c r="AL60" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM60">
         <v>100</v>
@@ -16146,7 +16146,7 @@
         <v>200</v>
       </c>
       <c r="AO60" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AP60" t="b">
         <v>1</v>
@@ -16154,17 +16154,17 @@
     </row>
     <row r="61" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B61" t="str" cm="1">
         <f t="array" ref="B61">INDEX(_xlfn.TEXTSPLIT(A61,"/"),5)</f>
         <v>jax</v>
       </c>
       <c r="C61" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D61" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -16188,25 +16188,25 @@
         <v>1</v>
       </c>
       <c r="L61" t="s">
+        <v>49</v>
+      </c>
+      <c r="M61" t="b">
+        <v>0</v>
+      </c>
+      <c r="N61" t="s">
         <v>50</v>
       </c>
-      <c r="M61" t="b">
-        <v>0</v>
-      </c>
-      <c r="N61" t="s">
-        <v>51</v>
-      </c>
       <c r="O61" t="b">
         <v>0</v>
       </c>
       <c r="P61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q61" t="b">
         <v>1</v>
       </c>
       <c r="R61" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="S61" t="b">
         <v>1</v>
@@ -16251,7 +16251,7 @@
         <v>0</v>
       </c>
       <c r="AG61" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH61" t="b">
         <v>0</v>
@@ -16266,7 +16266,7 @@
         <v>1</v>
       </c>
       <c r="AL61" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM61">
         <v>100</v>
@@ -16275,7 +16275,7 @@
         <v>200</v>
       </c>
       <c r="AO61" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP61" t="b">
         <v>0</v>
@@ -16283,17 +16283,17 @@
     </row>
     <row r="62" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B62" t="str" cm="1">
         <f t="array" ref="B62">INDEX(_xlfn.TEXTSPLIT(A62,"/"),5)</f>
         <v>jax</v>
       </c>
       <c r="C62" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D62" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E62">
         <v>2</v>
@@ -16317,25 +16317,25 @@
         <v>1</v>
       </c>
       <c r="L62" t="s">
+        <v>49</v>
+      </c>
+      <c r="M62" t="b">
+        <v>0</v>
+      </c>
+      <c r="N62" t="s">
         <v>50</v>
       </c>
-      <c r="M62" t="b">
-        <v>0</v>
-      </c>
-      <c r="N62" t="s">
-        <v>51</v>
-      </c>
       <c r="O62" t="b">
         <v>0</v>
       </c>
       <c r="P62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q62" t="b">
         <v>1</v>
       </c>
       <c r="R62" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="S62" t="b">
         <v>1</v>
@@ -16380,7 +16380,7 @@
         <v>0</v>
       </c>
       <c r="AG62" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH62" t="b">
         <v>0</v>
@@ -16395,7 +16395,7 @@
         <v>1</v>
       </c>
       <c r="AL62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM62">
         <v>100</v>
@@ -16404,7 +16404,7 @@
         <v>200</v>
       </c>
       <c r="AO62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP62" t="b">
         <v>0</v>
@@ -16412,17 +16412,17 @@
     </row>
     <row r="63" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B63" t="str" cm="1">
         <f t="array" ref="B63">INDEX(_xlfn.TEXTSPLIT(A63,"/"),5)</f>
         <v>jax</v>
       </c>
       <c r="C63" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D63" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E63">
         <v>7</v>
@@ -16446,25 +16446,25 @@
         <v>1</v>
       </c>
       <c r="L63" t="s">
+        <v>49</v>
+      </c>
+      <c r="M63" t="b">
+        <v>0</v>
+      </c>
+      <c r="N63" t="s">
         <v>50</v>
       </c>
-      <c r="M63" t="b">
-        <v>0</v>
-      </c>
-      <c r="N63" t="s">
-        <v>51</v>
-      </c>
       <c r="O63" t="b">
         <v>0</v>
       </c>
       <c r="P63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q63" t="b">
         <v>1</v>
       </c>
       <c r="R63" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="S63" t="b">
         <v>1</v>
@@ -16509,7 +16509,7 @@
         <v>0</v>
       </c>
       <c r="AG63" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH63" t="b">
         <v>1</v>
@@ -16524,7 +16524,7 @@
         <v>0</v>
       </c>
       <c r="AL63" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM63">
         <v>100</v>
@@ -16533,7 +16533,7 @@
         <v>200</v>
       </c>
       <c r="AO63" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP63" t="b">
         <v>0</v>
@@ -16541,17 +16541,17 @@
     </row>
     <row r="64" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B64" t="str" cm="1">
         <f t="array" ref="B64">INDEX(_xlfn.TEXTSPLIT(A64,"/"),5)</f>
         <v>jax</v>
       </c>
       <c r="C64" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D64" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E64">
         <v>5</v>
@@ -16575,25 +16575,25 @@
         <v>1</v>
       </c>
       <c r="L64" t="s">
+        <v>49</v>
+      </c>
+      <c r="M64" t="b">
+        <v>0</v>
+      </c>
+      <c r="N64" t="s">
         <v>50</v>
       </c>
-      <c r="M64" t="b">
-        <v>0</v>
-      </c>
-      <c r="N64" t="s">
-        <v>51</v>
-      </c>
       <c r="O64" t="b">
         <v>0</v>
       </c>
       <c r="P64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q64" t="b">
         <v>1</v>
       </c>
       <c r="R64" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="S64" t="b">
         <v>1</v>
@@ -16638,7 +16638,7 @@
         <v>0</v>
       </c>
       <c r="AG64" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH64" t="b">
         <v>0</v>
@@ -16653,7 +16653,7 @@
         <v>1</v>
       </c>
       <c r="AL64" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM64">
         <v>100</v>
@@ -16662,7 +16662,7 @@
         <v>200</v>
       </c>
       <c r="AO64" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP64" t="b">
         <v>1</v>
@@ -16670,17 +16670,17 @@
     </row>
     <row r="65" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B65" t="str" cm="1">
         <f t="array" ref="B65">INDEX(_xlfn.TEXTSPLIT(A65,"/"),5)</f>
         <v>jax</v>
       </c>
       <c r="C65" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D65" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E65">
         <v>2</v>
@@ -16704,25 +16704,25 @@
         <v>1</v>
       </c>
       <c r="L65" t="s">
+        <v>49</v>
+      </c>
+      <c r="M65" t="b">
+        <v>0</v>
+      </c>
+      <c r="N65" t="s">
         <v>50</v>
       </c>
-      <c r="M65" t="b">
-        <v>0</v>
-      </c>
-      <c r="N65" t="s">
-        <v>51</v>
-      </c>
       <c r="O65" t="b">
         <v>0</v>
       </c>
       <c r="P65" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q65" t="b">
         <v>0</v>
       </c>
       <c r="R65" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="S65" t="b">
         <v>1</v>
@@ -16767,7 +16767,7 @@
         <v>0</v>
       </c>
       <c r="AG65" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH65" t="b">
         <v>0</v>
@@ -16782,16 +16782,16 @@
         <v>0</v>
       </c>
       <c r="AL65" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM65">
         <v>10</v>
       </c>
       <c r="AN65" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AO65" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP65" t="b">
         <v>1</v>
@@ -16799,17 +16799,17 @@
     </row>
     <row r="66" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B66" t="str" cm="1">
         <f t="array" ref="B66">INDEX(_xlfn.TEXTSPLIT(A66,"/"),5)</f>
         <v>jax</v>
       </c>
       <c r="C66" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D66" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E66">
         <v>2</v>
@@ -16833,25 +16833,25 @@
         <v>1</v>
       </c>
       <c r="L66" t="s">
+        <v>49</v>
+      </c>
+      <c r="M66" t="b">
+        <v>0</v>
+      </c>
+      <c r="N66" t="s">
         <v>50</v>
       </c>
-      <c r="M66" t="b">
-        <v>0</v>
-      </c>
-      <c r="N66" t="s">
-        <v>51</v>
-      </c>
       <c r="O66" t="b">
         <v>0</v>
       </c>
       <c r="P66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q66" t="b">
         <v>0</v>
       </c>
       <c r="R66" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="S66" t="b">
         <v>1</v>
@@ -16896,7 +16896,7 @@
         <v>0</v>
       </c>
       <c r="AG66" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH66" t="b">
         <v>0</v>
@@ -16911,16 +16911,16 @@
         <v>0</v>
       </c>
       <c r="AL66" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM66">
         <v>10</v>
       </c>
       <c r="AN66" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AO66" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP66" t="b">
         <v>1</v>
@@ -16928,17 +16928,17 @@
     </row>
     <row r="67" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B67" t="str" cm="1">
         <f t="array" ref="B67">INDEX(_xlfn.TEXTSPLIT(A67,"/"),5)</f>
         <v>jax</v>
       </c>
       <c r="C67" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D67" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E67">
         <v>4</v>
@@ -16962,25 +16962,25 @@
         <v>1</v>
       </c>
       <c r="L67" t="s">
+        <v>49</v>
+      </c>
+      <c r="M67" t="b">
+        <v>0</v>
+      </c>
+      <c r="N67" t="s">
         <v>50</v>
       </c>
-      <c r="M67" t="b">
-        <v>0</v>
-      </c>
-      <c r="N67" t="s">
-        <v>51</v>
-      </c>
       <c r="O67" t="b">
         <v>0</v>
       </c>
       <c r="P67" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q67" t="b">
         <v>0</v>
       </c>
       <c r="R67" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="S67" t="b">
         <v>1</v>
@@ -17025,7 +17025,7 @@
         <v>0</v>
       </c>
       <c r="AG67" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH67" t="b">
         <v>0</v>
@@ -17040,16 +17040,16 @@
         <v>0</v>
       </c>
       <c r="AL67" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM67">
         <v>10</v>
       </c>
       <c r="AN67" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AO67" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP67" t="b">
         <v>1</v>
@@ -17057,17 +17057,17 @@
     </row>
     <row r="68" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B68" t="str" cm="1">
         <f t="array" ref="B68">INDEX(_xlfn.TEXTSPLIT(A68,"/"),5)</f>
         <v>jax</v>
       </c>
       <c r="C68" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D68" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -17091,25 +17091,25 @@
         <v>1</v>
       </c>
       <c r="L68" t="s">
+        <v>49</v>
+      </c>
+      <c r="M68" t="b">
+        <v>0</v>
+      </c>
+      <c r="N68" t="s">
         <v>50</v>
       </c>
-      <c r="M68" t="b">
-        <v>0</v>
-      </c>
-      <c r="N68" t="s">
-        <v>51</v>
-      </c>
       <c r="O68" t="b">
         <v>0</v>
       </c>
       <c r="P68" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q68" t="b">
         <v>0</v>
       </c>
       <c r="R68" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S68" t="b">
         <v>1</v>
@@ -17154,7 +17154,7 @@
         <v>0</v>
       </c>
       <c r="AG68" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH68" t="b">
         <v>0</v>
@@ -17169,16 +17169,16 @@
         <v>0</v>
       </c>
       <c r="AL68" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM68">
         <v>10</v>
       </c>
       <c r="AN68" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AO68" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP68" t="b">
         <v>1</v>
@@ -17186,17 +17186,17 @@
     </row>
     <row r="69" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B69" t="str" cm="1">
         <f t="array" ref="B69">INDEX(_xlfn.TEXTSPLIT(A69,"/"),5)</f>
         <v>jax</v>
       </c>
       <c r="C69" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D69" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -17220,25 +17220,25 @@
         <v>1</v>
       </c>
       <c r="L69" t="s">
+        <v>49</v>
+      </c>
+      <c r="M69" t="b">
+        <v>0</v>
+      </c>
+      <c r="N69" t="s">
         <v>50</v>
       </c>
-      <c r="M69" t="b">
-        <v>0</v>
-      </c>
-      <c r="N69" t="s">
-        <v>51</v>
-      </c>
       <c r="O69" t="b">
         <v>0</v>
       </c>
       <c r="P69" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q69" t="b">
         <v>0</v>
       </c>
       <c r="R69" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="S69" t="b">
         <v>1</v>
@@ -17283,7 +17283,7 @@
         <v>0</v>
       </c>
       <c r="AG69" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH69" t="b">
         <v>0</v>
@@ -17298,16 +17298,16 @@
         <v>0</v>
       </c>
       <c r="AL69" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM69">
         <v>10</v>
       </c>
       <c r="AN69" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AO69" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AP69" t="b">
         <v>1</v>
@@ -17315,17 +17315,17 @@
     </row>
     <row r="70" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B70" t="str" cm="1">
         <f t="array" ref="B70">INDEX(_xlfn.TEXTSPLIT(A70,"/"),5)</f>
         <v>jax</v>
       </c>
       <c r="C70" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D70" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -17349,25 +17349,25 @@
         <v>1</v>
       </c>
       <c r="L70" t="s">
+        <v>49</v>
+      </c>
+      <c r="M70" t="b">
+        <v>0</v>
+      </c>
+      <c r="N70" t="s">
         <v>50</v>
       </c>
-      <c r="M70" t="b">
-        <v>0</v>
-      </c>
-      <c r="N70" t="s">
-        <v>51</v>
-      </c>
       <c r="O70" t="b">
         <v>0</v>
       </c>
       <c r="P70" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q70" t="b">
         <v>0</v>
       </c>
       <c r="R70" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="S70" t="b">
         <v>1</v>
@@ -17412,7 +17412,7 @@
         <v>0</v>
       </c>
       <c r="AG70" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH70" t="b">
         <v>0</v>
@@ -17427,16 +17427,16 @@
         <v>0</v>
       </c>
       <c r="AL70" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM70">
         <v>10</v>
       </c>
       <c r="AN70" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AO70" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP70" t="b">
         <v>1</v>
@@ -17444,17 +17444,17 @@
     </row>
     <row r="71" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B71" t="str" cm="1">
         <f t="array" ref="B71">INDEX(_xlfn.TEXTSPLIT(A71,"/"),5)</f>
         <v>spaCy</v>
       </c>
       <c r="C71" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D71" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E71">
         <v>2</v>
@@ -17478,25 +17478,25 @@
         <v>1</v>
       </c>
       <c r="L71" t="s">
+        <v>49</v>
+      </c>
+      <c r="M71" t="b">
+        <v>0</v>
+      </c>
+      <c r="N71" t="s">
         <v>50</v>
       </c>
-      <c r="M71" t="b">
-        <v>0</v>
-      </c>
-      <c r="N71" t="s">
-        <v>51</v>
-      </c>
       <c r="O71" t="b">
         <v>0</v>
       </c>
       <c r="P71" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q71" t="b">
         <v>0</v>
       </c>
       <c r="R71" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="S71" t="b">
         <v>1</v>
@@ -17541,7 +17541,7 @@
         <v>0</v>
       </c>
       <c r="AG71" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH71" t="b">
         <v>0</v>
@@ -17556,7 +17556,7 @@
         <v>0</v>
       </c>
       <c r="AL71" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM71">
         <v>100</v>
@@ -17565,7 +17565,7 @@
         <v>200</v>
       </c>
       <c r="AO71" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP71" t="b">
         <v>1</v>
@@ -17573,17 +17573,17 @@
     </row>
     <row r="72" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B72" t="str" cm="1">
         <f t="array" ref="B72">INDEX(_xlfn.TEXTSPLIT(A72,"/"),5)</f>
         <v>spaCy</v>
       </c>
       <c r="C72" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D72" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -17607,25 +17607,25 @@
         <v>1</v>
       </c>
       <c r="L72" t="s">
+        <v>49</v>
+      </c>
+      <c r="M72" t="b">
+        <v>0</v>
+      </c>
+      <c r="N72" t="s">
         <v>50</v>
       </c>
-      <c r="M72" t="b">
-        <v>0</v>
-      </c>
-      <c r="N72" t="s">
+      <c r="O72" t="b">
+        <v>0</v>
+      </c>
+      <c r="P72" t="s">
         <v>51</v>
       </c>
-      <c r="O72" t="b">
-        <v>0</v>
-      </c>
-      <c r="P72" t="s">
-        <v>52</v>
-      </c>
       <c r="Q72" t="b">
         <v>0</v>
       </c>
       <c r="R72" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S72" t="b">
         <v>0</v>
@@ -17670,7 +17670,7 @@
         <v>0</v>
       </c>
       <c r="AG72" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH72" t="b">
         <v>0</v>
@@ -17685,7 +17685,7 @@
         <v>0</v>
       </c>
       <c r="AL72" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM72">
         <v>100</v>
@@ -17694,7 +17694,7 @@
         <v>200</v>
       </c>
       <c r="AO72" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP72" t="b">
         <v>0</v>
@@ -17702,17 +17702,17 @@
     </row>
     <row r="73" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B73" t="str" cm="1">
         <f t="array" ref="B73">INDEX(_xlfn.TEXTSPLIT(A73,"/"),5)</f>
         <v>spaCy</v>
       </c>
       <c r="C73" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D73" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -17736,25 +17736,25 @@
         <v>1</v>
       </c>
       <c r="L73" t="s">
+        <v>49</v>
+      </c>
+      <c r="M73" t="b">
+        <v>0</v>
+      </c>
+      <c r="N73" t="s">
         <v>50</v>
       </c>
-      <c r="M73" t="b">
-        <v>0</v>
-      </c>
-      <c r="N73" t="s">
+      <c r="O73" t="b">
+        <v>0</v>
+      </c>
+      <c r="P73" t="s">
         <v>51</v>
       </c>
-      <c r="O73" t="b">
-        <v>0</v>
-      </c>
-      <c r="P73" t="s">
-        <v>52</v>
-      </c>
       <c r="Q73" t="b">
         <v>0</v>
       </c>
       <c r="R73" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S73" t="b">
         <v>1</v>
@@ -17799,7 +17799,7 @@
         <v>0</v>
       </c>
       <c r="AG73" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH73" t="b">
         <v>0</v>
@@ -17814,7 +17814,7 @@
         <v>0</v>
       </c>
       <c r="AL73" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM73">
         <v>100</v>
@@ -17823,7 +17823,7 @@
         <v>200</v>
       </c>
       <c r="AO73" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP73" t="b">
         <v>0</v>
@@ -17831,60 +17831,60 @@
     </row>
     <row r="74" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B74" t="str" cm="1">
         <f t="array" ref="B74">INDEX(_xlfn.TEXTSPLIT(A74,"/"),5)</f>
         <v>spaCy</v>
       </c>
       <c r="C74" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D74" t="s">
+        <v>398</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="b">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74" t="b">
+        <v>1</v>
+      </c>
+      <c r="L74" t="s">
+        <v>49</v>
+      </c>
+      <c r="M74" t="b">
+        <v>0</v>
+      </c>
+      <c r="N74" t="s">
+        <v>50</v>
+      </c>
+      <c r="O74" t="b">
+        <v>0</v>
+      </c>
+      <c r="P74" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q74" t="b">
+        <v>0</v>
+      </c>
+      <c r="R74" t="s">
         <v>399</v>
       </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>1</v>
-      </c>
-      <c r="K74" t="b">
-        <v>1</v>
-      </c>
-      <c r="L74" t="s">
-        <v>50</v>
-      </c>
-      <c r="M74" t="b">
-        <v>0</v>
-      </c>
-      <c r="N74" t="s">
-        <v>51</v>
-      </c>
-      <c r="O74" t="b">
-        <v>0</v>
-      </c>
-      <c r="P74" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q74" t="b">
-        <v>0</v>
-      </c>
-      <c r="R74" t="s">
-        <v>400</v>
-      </c>
       <c r="S74" t="b">
         <v>1</v>
       </c>
@@ -17928,7 +17928,7 @@
         <v>0</v>
       </c>
       <c r="AG74" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH74" t="b">
         <v>0</v>
@@ -17943,7 +17943,7 @@
         <v>0</v>
       </c>
       <c r="AL74" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AM74">
         <v>100</v>
@@ -17952,7 +17952,7 @@
         <v>200</v>
       </c>
       <c r="AO74" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP74" t="b">
         <v>0</v>
@@ -17960,17 +17960,17 @@
     </row>
     <row r="75" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B75" t="str" cm="1">
         <f t="array" ref="B75">INDEX(_xlfn.TEXTSPLIT(A75,"/"),5)</f>
         <v>numpy</v>
       </c>
       <c r="C75" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D75" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E75">
         <v>2</v>
@@ -17994,25 +17994,25 @@
         <v>1</v>
       </c>
       <c r="L75" t="s">
+        <v>49</v>
+      </c>
+      <c r="M75" t="b">
+        <v>0</v>
+      </c>
+      <c r="N75" t="s">
         <v>50</v>
       </c>
-      <c r="M75" t="b">
-        <v>0</v>
-      </c>
-      <c r="N75" t="s">
-        <v>51</v>
-      </c>
       <c r="O75" t="b">
         <v>0</v>
       </c>
       <c r="P75" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Q75" t="b">
         <v>0</v>
       </c>
       <c r="R75" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="S75" t="b">
         <v>0</v>
@@ -18057,7 +18057,7 @@
         <v>0</v>
       </c>
       <c r="AG75" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH75" t="b">
         <v>0</v>
@@ -18072,7 +18072,7 @@
         <v>0</v>
       </c>
       <c r="AL75" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM75">
         <v>100</v>
@@ -18081,7 +18081,7 @@
         <v>200</v>
       </c>
       <c r="AO75" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP75" t="b">
         <v>0</v>
@@ -18089,17 +18089,17 @@
     </row>
     <row r="76" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B76" t="str" cm="1">
         <f t="array" ref="B76">INDEX(_xlfn.TEXTSPLIT(A76,"/"),5)</f>
         <v>numpy</v>
       </c>
       <c r="C76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D76" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E76">
         <v>7</v>
@@ -18123,25 +18123,25 @@
         <v>1</v>
       </c>
       <c r="L76" t="s">
+        <v>49</v>
+      </c>
+      <c r="M76" t="b">
+        <v>1</v>
+      </c>
+      <c r="N76" t="s">
         <v>50</v>
       </c>
-      <c r="M76" t="b">
-        <v>1</v>
-      </c>
-      <c r="N76" t="s">
-        <v>51</v>
-      </c>
       <c r="O76" t="b">
         <v>0</v>
       </c>
       <c r="P76" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Q76" t="b">
         <v>0</v>
       </c>
       <c r="R76" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="S76" t="b">
         <v>1</v>
@@ -18186,7 +18186,7 @@
         <v>0</v>
       </c>
       <c r="AG76" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AH76" t="b">
         <v>0</v>
@@ -18201,7 +18201,7 @@
         <v>0</v>
       </c>
       <c r="AL76" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM76">
         <v>100</v>
@@ -18210,7 +18210,7 @@
         <v>200</v>
       </c>
       <c r="AO76" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP76" t="b">
         <v>1</v>
@@ -18218,17 +18218,17 @@
     </row>
     <row r="77" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B77" t="str" cm="1">
         <f t="array" ref="B77">INDEX(_xlfn.TEXTSPLIT(A77,"/"),5)</f>
         <v>numpy</v>
       </c>
       <c r="C77" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D77" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E77">
         <f>4+2*(7+4*(3+(7+1*(3+6)+2))+2)</f>
@@ -18254,25 +18254,25 @@
         <v>1</v>
       </c>
       <c r="L77" t="s">
+        <v>49</v>
+      </c>
+      <c r="M77" t="b">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s">
         <v>50</v>
       </c>
-      <c r="M77" t="b">
-        <v>1</v>
-      </c>
-      <c r="N77" t="s">
-        <v>51</v>
-      </c>
       <c r="O77" t="b">
         <v>0</v>
       </c>
       <c r="P77" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Q77" t="b">
         <v>0</v>
       </c>
       <c r="R77" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="S77" t="b">
         <v>1</v>
@@ -18317,7 +18317,7 @@
         <v>0</v>
       </c>
       <c r="AG77" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AH77" t="b">
         <v>0</v>
@@ -18332,7 +18332,7 @@
         <v>0</v>
       </c>
       <c r="AL77" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM77">
         <v>100</v>
@@ -18341,7 +18341,7 @@
         <v>200</v>
       </c>
       <c r="AO77" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP77" t="b">
         <v>1</v>
@@ -18349,60 +18349,60 @@
     </row>
     <row r="78" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B78" t="str" cm="1">
         <f t="array" ref="B78">INDEX(_xlfn.TEXTSPLIT(A78,"/"),5)</f>
         <v>numpy</v>
       </c>
       <c r="C78" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D78" t="s">
+        <v>343</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" t="s">
+        <v>49</v>
+      </c>
+      <c r="M78" t="b">
+        <v>0</v>
+      </c>
+      <c r="N78" t="s">
+        <v>50</v>
+      </c>
+      <c r="O78" t="b">
+        <v>0</v>
+      </c>
+      <c r="P78" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q78" t="b">
+        <v>0</v>
+      </c>
+      <c r="R78" t="s">
         <v>344</v>
       </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <v>1</v>
-      </c>
-      <c r="K78" t="b">
-        <v>1</v>
-      </c>
-      <c r="L78" t="s">
-        <v>50</v>
-      </c>
-      <c r="M78" t="b">
-        <v>0</v>
-      </c>
-      <c r="N78" t="s">
-        <v>51</v>
-      </c>
-      <c r="O78" t="b">
-        <v>0</v>
-      </c>
-      <c r="P78" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q78" t="b">
-        <v>0</v>
-      </c>
-      <c r="R78" t="s">
-        <v>345</v>
-      </c>
       <c r="S78" t="b">
         <v>0</v>
       </c>
@@ -18446,7 +18446,7 @@
         <v>0</v>
       </c>
       <c r="AG78" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH78" t="b">
         <v>0</v>
@@ -18461,7 +18461,7 @@
         <v>0</v>
       </c>
       <c r="AL78" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM78">
         <v>100</v>
@@ -18470,7 +18470,7 @@
         <v>200</v>
       </c>
       <c r="AO78" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP78" t="b">
         <v>0</v>
@@ -18478,17 +18478,17 @@
     </row>
     <row r="79" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B79" t="str" cm="1">
         <f t="array" ref="B79">INDEX(_xlfn.TEXTSPLIT(A79,"/"),5)</f>
         <v>numpy</v>
       </c>
       <c r="C79" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D79" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E79">
         <v>2</v>
@@ -18512,25 +18512,25 @@
         <v>1</v>
       </c>
       <c r="L79" t="s">
+        <v>49</v>
+      </c>
+      <c r="M79" t="b">
+        <v>0</v>
+      </c>
+      <c r="N79" t="s">
         <v>50</v>
       </c>
-      <c r="M79" t="b">
-        <v>0</v>
-      </c>
-      <c r="N79" t="s">
-        <v>51</v>
-      </c>
       <c r="O79" t="b">
         <v>0</v>
       </c>
       <c r="P79" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q79" t="b">
         <v>0</v>
       </c>
       <c r="R79" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="S79" t="b">
         <v>1</v>
@@ -18575,7 +18575,7 @@
         <v>0</v>
       </c>
       <c r="AG79" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH79" t="b">
         <v>0</v>
@@ -18590,7 +18590,7 @@
         <v>0</v>
       </c>
       <c r="AL79" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM79">
         <v>100</v>
@@ -18599,7 +18599,7 @@
         <v>200</v>
       </c>
       <c r="AO79" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP79" t="b">
         <v>0</v>
@@ -18607,17 +18607,17 @@
     </row>
     <row r="80" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B80" t="str" cm="1">
         <f t="array" ref="B80">INDEX(_xlfn.TEXTSPLIT(A80,"/"),5)</f>
         <v>numpy</v>
       </c>
       <c r="C80" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D80" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E80">
         <v>3</v>
@@ -18641,25 +18641,25 @@
         <v>1</v>
       </c>
       <c r="L80" t="s">
+        <v>49</v>
+      </c>
+      <c r="M80" t="b">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
         <v>50</v>
       </c>
-      <c r="M80" t="b">
-        <v>1</v>
-      </c>
-      <c r="N80" t="s">
-        <v>51</v>
-      </c>
       <c r="O80" t="b">
         <v>0</v>
       </c>
       <c r="P80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q80" t="b">
         <v>0</v>
       </c>
       <c r="R80" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="S80" t="b">
         <v>1</v>
@@ -18704,7 +18704,7 @@
         <v>0</v>
       </c>
       <c r="AG80" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AH80" t="b">
         <v>0</v>
@@ -18719,7 +18719,7 @@
         <v>1</v>
       </c>
       <c r="AL80" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AM80">
         <v>10000</v>
@@ -18728,7 +18728,7 @@
         <v>2000</v>
       </c>
       <c r="AO80" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AP80" t="b">
         <v>1</v>
@@ -18736,17 +18736,17 @@
     </row>
     <row r="81" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B81" t="str" cm="1">
         <f t="array" ref="B81">INDEX(_xlfn.TEXTSPLIT(A81,"/"),5)</f>
         <v>numpy</v>
       </c>
       <c r="C81" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D81" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E81">
         <v>3</v>
@@ -18770,25 +18770,25 @@
         <v>1</v>
       </c>
       <c r="L81" t="s">
+        <v>49</v>
+      </c>
+      <c r="M81" t="b">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
         <v>50</v>
       </c>
-      <c r="M81" t="b">
-        <v>1</v>
-      </c>
-      <c r="N81" t="s">
-        <v>51</v>
-      </c>
       <c r="O81" t="b">
         <v>0</v>
       </c>
       <c r="P81" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q81" t="b">
         <v>0</v>
       </c>
       <c r="R81" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="S81" t="b">
         <v>0</v>
@@ -18833,7 +18833,7 @@
         <v>0</v>
       </c>
       <c r="AG81" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AH81" t="b">
         <v>0</v>
@@ -18848,7 +18848,7 @@
         <v>1</v>
       </c>
       <c r="AL81" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AM81">
         <v>100</v>
@@ -18857,7 +18857,7 @@
         <v>200</v>
       </c>
       <c r="AO81" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AP81" t="b">
         <v>1</v>
@@ -18865,17 +18865,17 @@
     </row>
     <row r="82" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B82" t="str" cm="1">
         <f t="array" ref="B82">INDEX(_xlfn.TEXTSPLIT(A82,"/"),5)</f>
         <v>numpy</v>
       </c>
       <c r="C82" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D82" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -18899,71 +18899,71 @@
         <v>1</v>
       </c>
       <c r="L82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M82" t="b">
         <v>0</v>
       </c>
       <c r="N82" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O82" t="b">
         <v>0</v>
       </c>
       <c r="P82" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q82" t="b">
         <v>0</v>
       </c>
       <c r="R82" t="s">
+        <v>368</v>
+      </c>
+      <c r="S82" t="b">
+        <v>0</v>
+      </c>
+      <c r="T82" t="b">
+        <v>1</v>
+      </c>
+      <c r="U82" t="b">
+        <v>0</v>
+      </c>
+      <c r="V82" t="b">
+        <v>0</v>
+      </c>
+      <c r="W82" t="b">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>0</v>
+      </c>
+      <c r="Y82" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC82" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG82" t="s">
         <v>369</v>
       </c>
-      <c r="S82" t="b">
-        <v>0</v>
-      </c>
-      <c r="T82" t="b">
-        <v>1</v>
-      </c>
-      <c r="U82" t="b">
-        <v>0</v>
-      </c>
-      <c r="V82" t="b">
-        <v>0</v>
-      </c>
-      <c r="W82" t="b">
-        <v>0</v>
-      </c>
-      <c r="X82">
-        <v>0</v>
-      </c>
-      <c r="Y82" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z82" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA82" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB82" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC82" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD82" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE82" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF82" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG82" t="s">
-        <v>370</v>
-      </c>
       <c r="AH82" t="b">
         <v>0</v>
       </c>
@@ -18977,7 +18977,7 @@
         <v>1</v>
       </c>
       <c r="AL82" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM82">
         <v>100</v>
@@ -18986,7 +18986,7 @@
         <v>200</v>
       </c>
       <c r="AO82" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP82" t="b">
         <v>1</v>
@@ -18994,17 +18994,17 @@
     </row>
     <row r="83" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B83" t="str" cm="1">
         <f t="array" ref="B83">INDEX(_xlfn.TEXTSPLIT(A83,"/"),5)</f>
         <v>numpy</v>
       </c>
       <c r="C83" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D83" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -19028,71 +19028,71 @@
         <v>1</v>
       </c>
       <c r="L83" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M83" t="b">
         <v>0</v>
       </c>
       <c r="N83" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O83" t="b">
         <v>0</v>
       </c>
       <c r="P83" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q83" t="b">
         <v>0</v>
       </c>
       <c r="R83" t="s">
+        <v>368</v>
+      </c>
+      <c r="S83" t="b">
+        <v>0</v>
+      </c>
+      <c r="T83" t="b">
+        <v>1</v>
+      </c>
+      <c r="U83" t="b">
+        <v>0</v>
+      </c>
+      <c r="V83" t="b">
+        <v>0</v>
+      </c>
+      <c r="W83" t="b">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
+      <c r="Y83" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z83" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA83" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB83" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC83" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD83" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE83" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF83" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG83" t="s">
         <v>369</v>
       </c>
-      <c r="S83" t="b">
-        <v>0</v>
-      </c>
-      <c r="T83" t="b">
-        <v>1</v>
-      </c>
-      <c r="U83" t="b">
-        <v>0</v>
-      </c>
-      <c r="V83" t="b">
-        <v>0</v>
-      </c>
-      <c r="W83" t="b">
-        <v>0</v>
-      </c>
-      <c r="X83">
-        <v>0</v>
-      </c>
-      <c r="Y83" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z83" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA83" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB83" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC83" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD83" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE83" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF83" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG83" t="s">
-        <v>370</v>
-      </c>
       <c r="AH83" t="b">
         <v>0</v>
       </c>
@@ -19106,7 +19106,7 @@
         <v>1</v>
       </c>
       <c r="AL83" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM83">
         <v>100</v>
@@ -19115,7 +19115,7 @@
         <v>200</v>
       </c>
       <c r="AO83" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP83" t="b">
         <v>1</v>
@@ -19123,17 +19123,17 @@
     </row>
     <row r="84" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B84" t="str" cm="1">
         <f t="array" ref="B84">INDEX(_xlfn.TEXTSPLIT(A84,"/"),5)</f>
         <v>numpy</v>
       </c>
       <c r="C84" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D84" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -19157,25 +19157,25 @@
         <v>1</v>
       </c>
       <c r="L84" t="s">
+        <v>49</v>
+      </c>
+      <c r="M84" t="b">
+        <v>0</v>
+      </c>
+      <c r="N84" t="s">
         <v>50</v>
       </c>
-      <c r="M84" t="b">
-        <v>0</v>
-      </c>
-      <c r="N84" t="s">
-        <v>51</v>
-      </c>
       <c r="O84" t="b">
         <v>0</v>
       </c>
       <c r="P84" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="Q84" t="b">
         <v>0</v>
       </c>
       <c r="R84" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="S84" t="b">
         <v>0</v>
@@ -19220,7 +19220,7 @@
         <v>0</v>
       </c>
       <c r="AG84" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH84" t="b">
         <v>0</v>
@@ -19235,7 +19235,7 @@
         <v>1</v>
       </c>
       <c r="AL84" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM84">
         <v>100</v>
@@ -19244,7 +19244,7 @@
         <v>200</v>
       </c>
       <c r="AO84" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP84" t="b">
         <v>0</v>
@@ -19252,60 +19252,60 @@
     </row>
     <row r="85" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B85" t="str" cm="1">
         <f t="array" ref="B85">INDEX(_xlfn.TEXTSPLIT(A85,"/"),5)</f>
         <v>numpy</v>
       </c>
       <c r="C85" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D85" t="s">
+        <v>373</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85" t="b">
+        <v>1</v>
+      </c>
+      <c r="L85" t="s">
+        <v>49</v>
+      </c>
+      <c r="M85" t="b">
+        <v>0</v>
+      </c>
+      <c r="N85" t="s">
+        <v>50</v>
+      </c>
+      <c r="O85" t="b">
+        <v>0</v>
+      </c>
+      <c r="P85" t="s">
         <v>374</v>
       </c>
-      <c r="E85">
-        <v>1</v>
-      </c>
-      <c r="F85">
-        <v>1</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="b">
-        <v>0</v>
-      </c>
-      <c r="J85">
-        <v>1</v>
-      </c>
-      <c r="K85" t="b">
-        <v>1</v>
-      </c>
-      <c r="L85" t="s">
-        <v>50</v>
-      </c>
-      <c r="M85" t="b">
-        <v>0</v>
-      </c>
-      <c r="N85" t="s">
-        <v>51</v>
-      </c>
-      <c r="O85" t="b">
-        <v>0</v>
-      </c>
-      <c r="P85" t="s">
+      <c r="Q85" t="b">
+        <v>0</v>
+      </c>
+      <c r="R85" t="s">
         <v>375</v>
       </c>
-      <c r="Q85" t="b">
-        <v>0</v>
-      </c>
-      <c r="R85" t="s">
-        <v>376</v>
-      </c>
       <c r="S85" t="b">
         <v>1</v>
       </c>
@@ -19349,7 +19349,7 @@
         <v>0</v>
       </c>
       <c r="AG85" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH85" t="b">
         <v>0</v>
@@ -19364,7 +19364,7 @@
         <v>0</v>
       </c>
       <c r="AL85" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM85">
         <v>100</v>
@@ -19373,7 +19373,7 @@
         <v>200</v>
       </c>
       <c r="AO85" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP85" t="b">
         <v>0</v>
@@ -19381,60 +19381,60 @@
     </row>
     <row r="86" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B86" t="str" cm="1">
         <f t="array" ref="B86">INDEX(_xlfn.TEXTSPLIT(A86,"/"),5)</f>
         <v>numpy</v>
       </c>
       <c r="C86" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D86" t="s">
+        <v>376</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" t="b">
+        <v>0</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="b">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86" t="b">
+        <v>1</v>
+      </c>
+      <c r="L86" t="s">
+        <v>49</v>
+      </c>
+      <c r="M86" t="b">
+        <v>0</v>
+      </c>
+      <c r="N86" t="s">
+        <v>50</v>
+      </c>
+      <c r="O86" t="b">
+        <v>0</v>
+      </c>
+      <c r="P86" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q86" t="b">
+        <v>0</v>
+      </c>
+      <c r="R86" t="s">
         <v>377</v>
       </c>
-      <c r="E86">
-        <v>1</v>
-      </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="b">
-        <v>0</v>
-      </c>
-      <c r="J86">
-        <v>1</v>
-      </c>
-      <c r="K86" t="b">
-        <v>1</v>
-      </c>
-      <c r="L86" t="s">
-        <v>50</v>
-      </c>
-      <c r="M86" t="b">
-        <v>0</v>
-      </c>
-      <c r="N86" t="s">
-        <v>51</v>
-      </c>
-      <c r="O86" t="b">
-        <v>0</v>
-      </c>
-      <c r="P86" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q86" t="b">
-        <v>0</v>
-      </c>
-      <c r="R86" t="s">
-        <v>378</v>
-      </c>
       <c r="S86" t="b">
         <v>1</v>
       </c>
@@ -19478,7 +19478,7 @@
         <v>0</v>
       </c>
       <c r="AG86" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH86" t="b">
         <v>0</v>
@@ -19493,7 +19493,7 @@
         <v>0</v>
       </c>
       <c r="AL86" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM86">
         <v>100</v>
@@ -19502,7 +19502,7 @@
         <v>200</v>
       </c>
       <c r="AO86" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP86" t="b">
         <v>0</v>
@@ -19510,60 +19510,60 @@
     </row>
     <row r="87" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B87" t="str" cm="1">
         <f t="array" ref="B87">INDEX(_xlfn.TEXTSPLIT(A87,"/"),5)</f>
         <v>numpy</v>
       </c>
       <c r="C87" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D87" t="s">
+        <v>378</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87" t="b">
+        <v>0</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="b">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87" t="b">
+        <v>1</v>
+      </c>
+      <c r="L87" t="s">
+        <v>49</v>
+      </c>
+      <c r="M87" t="b">
+        <v>0</v>
+      </c>
+      <c r="N87" t="s">
+        <v>50</v>
+      </c>
+      <c r="O87" t="b">
+        <v>0</v>
+      </c>
+      <c r="P87" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q87" t="b">
+        <v>0</v>
+      </c>
+      <c r="R87" t="s">
         <v>379</v>
       </c>
-      <c r="E87">
-        <v>1</v>
-      </c>
-      <c r="F87">
-        <v>1</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="b">
-        <v>0</v>
-      </c>
-      <c r="J87">
-        <v>1</v>
-      </c>
-      <c r="K87" t="b">
-        <v>1</v>
-      </c>
-      <c r="L87" t="s">
-        <v>50</v>
-      </c>
-      <c r="M87" t="b">
-        <v>0</v>
-      </c>
-      <c r="N87" t="s">
-        <v>51</v>
-      </c>
-      <c r="O87" t="b">
-        <v>0</v>
-      </c>
-      <c r="P87" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q87" t="b">
-        <v>0</v>
-      </c>
-      <c r="R87" t="s">
-        <v>380</v>
-      </c>
       <c r="S87" t="b">
         <v>1</v>
       </c>
@@ -19607,7 +19607,7 @@
         <v>0</v>
       </c>
       <c r="AG87" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH87" t="b">
         <v>0</v>
@@ -19622,7 +19622,7 @@
         <v>0</v>
       </c>
       <c r="AL87" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM87">
         <v>100</v>
@@ -19631,7 +19631,7 @@
         <v>200</v>
       </c>
       <c r="AO87" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP87" t="b">
         <v>0</v>
@@ -19639,17 +19639,17 @@
     </row>
     <row r="88" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B88" t="str" cm="1">
         <f t="array" ref="B88">INDEX(_xlfn.TEXTSPLIT(A88,"/"),5)</f>
         <v>numpy</v>
       </c>
       <c r="C88" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D88" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -19673,25 +19673,25 @@
         <v>1</v>
       </c>
       <c r="L88" t="s">
+        <v>49</v>
+      </c>
+      <c r="M88" t="b">
+        <v>0</v>
+      </c>
+      <c r="N88" t="s">
         <v>50</v>
       </c>
-      <c r="M88" t="b">
-        <v>0</v>
-      </c>
-      <c r="N88" t="s">
-        <v>51</v>
-      </c>
       <c r="O88" t="b">
         <v>0</v>
       </c>
       <c r="P88" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Q88" t="b">
         <v>0</v>
       </c>
       <c r="R88" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S88" t="b">
         <v>1</v>
@@ -19736,7 +19736,7 @@
         <v>0</v>
       </c>
       <c r="AG88" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH88" t="b">
         <v>0</v>
@@ -19751,7 +19751,7 @@
         <v>0</v>
       </c>
       <c r="AL88" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM88">
         <v>100</v>
@@ -19760,7 +19760,7 @@
         <v>200</v>
       </c>
       <c r="AO88" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP88" t="b">
         <v>0</v>
@@ -19768,7 +19768,7 @@
     </row>
     <row r="89" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E89" s="15">
         <f>AVERAGE(Table2[min_assertions])</f>
@@ -19799,7 +19799,7 @@
         <v>87</v>
       </c>
       <c r="L89">
-        <f>COUNTA(Table2[what_does_it_test]) - COUNTIF(Table2[what_does_it_test], "Functionality")</f>
+        <f>COUNTA(Table2[test_level]) - COUNTIF(Table2[test_level], "Functionality")</f>
         <v>0</v>
       </c>
       <c r="M89">
@@ -20045,18 +20045,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C1" t="s">
         <v>412</v>
-      </c>
-      <c r="C1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B2" cm="1">
         <f t="array" ref="B2">SUM(--ISNUMBER(SEARCH(A2,Table2[category])))</f>
@@ -20069,7 +20069,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B3" cm="1">
         <f t="array" ref="B3">SUM(--ISNUMBER(SEARCH(A3,Table2[category])))</f>
@@ -20082,7 +20082,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" cm="1">
         <f t="array" ref="B4">SUM(--ISNUMBER(SEARCH(A4,Table2[category])))</f>
@@ -20095,7 +20095,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" cm="1">
         <f t="array" ref="B5">SUM(--ISNUMBER(SEARCH(A5,Table2[category])))</f>
@@ -20108,7 +20108,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B6" cm="1">
         <f t="array" ref="B6">SUM(--ISNUMBER(SEARCH(A6,Table2[category])))</f>
@@ -20121,7 +20121,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B7" cm="1">
         <f t="array" ref="B7">SUM(--ISNUMBER(SEARCH(A7,Table2[category])))</f>
@@ -20134,7 +20134,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B8" cm="1">
         <f t="array" ref="B8">SUM(--ISNUMBER(SEARCH(A8,Table2[category])))</f>
@@ -20147,7 +20147,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B9" cm="1">
         <f t="array" ref="B9">SUM(--ISNUMBER(SEARCH(A9,Table2[category])))</f>
@@ -20160,7 +20160,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B10" cm="1">
         <f t="array" ref="B10">SUM(--ISNUMBER(SEARCH(A10,Table2[category])))</f>
@@ -20173,7 +20173,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" cm="1">
         <f t="array" ref="B11">SUM(--ISNUMBER(SEARCH(A11,Table2[category])))</f>
@@ -20186,7 +20186,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B12" cm="1">
         <f t="array" ref="B12">SUM(--ISNUMBER(SEARCH(A12,Table2[category])))</f>
@@ -20199,7 +20199,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B13" cm="1">
         <f t="array" ref="B13">SUM(--ISNUMBER(SEARCH(A13,Table2[category])))</f>
@@ -20212,7 +20212,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B14" cm="1">
         <f t="array" ref="B14">SUM(--ISNUMBER(SEARCH(A14,Table2[category])))</f>
@@ -20225,7 +20225,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B15" cm="1">
         <f t="array" ref="B15">SUM(--ISNUMBER(SEARCH(A15,Table2[category])))</f>
@@ -20238,7 +20238,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B16" cm="1">
         <f t="array" ref="B16">SUM(--ISNUMBER(SEARCH(A16,Table2[category])))</f>
@@ -20251,7 +20251,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B17" cm="1">
         <f t="array" ref="B17">SUM(--ISNUMBER(SEARCH(A17,Table2[category])))</f>
@@ -20264,7 +20264,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B18" cm="1">
         <f t="array" ref="B18">SUM(--ISNUMBER(SEARCH(A18,Table2[category])))</f>
@@ -20277,7 +20277,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B19" cm="1">
         <f t="array" ref="B19">SUM(--ISNUMBER(SEARCH(A19,Table2[category])))</f>
@@ -20290,7 +20290,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B20" cm="1">
         <f t="array" ref="B20">SUM(--ISNUMBER(SEARCH(A20,Table2[category])))</f>
@@ -20303,7 +20303,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B21" cm="1">
         <f t="array" ref="B21">SUM(--ISNUMBER(SEARCH(A21,Table2[category])))</f>
@@ -20339,18 +20339,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C1" t="s">
         <v>412</v>
-      </c>
-      <c r="C1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B2" cm="1">
         <f t="array" ref="B2">SUM(--ISNUMBER(SEARCH(A2,Table2[generated_input_type])))</f>
@@ -20363,7 +20363,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B3" cm="1">
         <f t="array" ref="B3">SUM(--ISNUMBER(SEARCH(A3,Table2[generated_input_type])))</f>
@@ -20376,7 +20376,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B4" cm="1">
         <f t="array" ref="B4">SUM(--ISNUMBER(SEARCH(A4,Table2[generated_input_type])))</f>
@@ -20389,7 +20389,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B5" cm="1">
         <f t="array" ref="B5">SUM(--ISNUMBER(SEARCH("number",Table2[generated_input_type]))) + SUM(--ISNUMBER(SEARCH("scalar",Table2[generated_input_type])))</f>
@@ -20402,7 +20402,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" cm="1">
         <f t="array" ref="B6">SUM(--ISNUMBER(SEARCH(A6,Table2[generated_input_type])))</f>
@@ -20415,7 +20415,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B7" cm="1">
         <f t="array" ref="B7">SUM(--ISNUMBER(SEARCH(A7,Table2[generated_input_type])))</f>
@@ -20428,7 +20428,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B8" cm="1">
         <f t="array" ref="B8">SUM(--ISNUMBER(SEARCH(A8,Table2[generated_input_type])))</f>
@@ -20441,7 +20441,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B9" cm="1">
         <f t="array" ref="B9">SUM(--ISNUMBER(SEARCH(A9,Table2[generated_input_type])))</f>
@@ -20454,7 +20454,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B10" cm="1">
         <f t="array" ref="B10">SUM(--ISNUMBER(SEARCH(A10,Table2[generated_input_type]))) + SUM(--ISNUMBER(SEARCH("[",Table2[generated_input_type])))</f>
@@ -20467,7 +20467,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B11" cm="1">
         <f t="array" ref="B11">SUM(--ISNUMBER(SEARCH(A11,Table2[generated_input_type]))) + 9</f>
@@ -20480,7 +20480,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B12" s="13" cm="1">
         <f t="array" ref="B12">SUM(--ISNUMBER(SEARCH(A12,Table2[generated_input_type])))</f>
@@ -20493,7 +20493,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B13" s="17">
         <v>1</v>
@@ -20505,7 +20505,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B14" cm="1">
         <f t="array" ref="B14">SUM(--ISNUMBER(SEARCH(A14,Table2[generated_input_type])))</f>
@@ -20518,7 +20518,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B15" cm="1">
         <f t="array" ref="B15">SUM(--ISNUMBER(SEARCH("func",Table2[generated_input_type])))</f>
@@ -20554,15 +20554,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B2">
         <f>Table2[[#Totals],[uses_custom_generator]]</f>
@@ -20571,7 +20571,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B3">
         <f>Table2[[#Totals],[uses_custom_assertion]]</f>
@@ -20580,7 +20580,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B4">
         <f>Table2[[#Totals],[uses_custom_shrinker]]</f>
@@ -20589,7 +20589,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B5" s="3">
         <f>Table2[[#Totals],[is_parametrized]]</f>
@@ -20598,7 +20598,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B6">
         <f>COUNTIF(Table2[amt_example_inputs], "&gt; 0")</f>
@@ -20607,7 +20607,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B7">
         <f>Table2[[#Totals],[uses_dynamic_generation]]</f>
@@ -20616,7 +20616,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B8">
         <f>Table2[[#Totals],[uses_non_hypothesis_generation]]</f>
@@ -20625,7 +20625,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B9">
         <f>Table2[[#Totals],[generated_SUT]]</f>
@@ -20634,7 +20634,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B10">
         <f>Table2[[#Totals],[generated_input_used_directly]]</f>
@@ -20665,15 +20665,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B2">
         <f>Table2[[#Totals],[is_input_filtered]]</f>
@@ -20682,7 +20682,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B3">
         <f>Table2[[#Totals],[has_assumptions]]</f>
@@ -20691,7 +20691,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B4">
         <f>Table2[[#Totals],[skip_test]]</f>
@@ -20700,7 +20700,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B5">
         <f>Table2[[#Totals],[test_precondition]]</f>
